--- a/Transpose/doc/perf counter.xlsx
+++ b/Transpose/doc/perf counter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feiw\Desktop\fft report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feiw\source\repos\rocm_start_sample\Transpose\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A558EF-618C-43D7-BC92-27413CCC7321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA053C-9837-4960-B127-58F757B5DFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <sheet name="stall" sheetId="8" r:id="rId7"/>
     <sheet name="addr" sheetId="9" r:id="rId8"/>
     <sheet name="glb_rd" sheetId="10" r:id="rId9"/>
-    <sheet name="lds_wr" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet5" sheetId="12" r:id="rId11"/>
+    <sheet name="glb_rd2" sheetId="14" r:id="rId10"/>
+    <sheet name="lds_wr" sheetId="11" r:id="rId11"/>
+    <sheet name="lds_wr2" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="86">
   <si>
     <t>fft_fwd_ip_len50</t>
   </si>
@@ -324,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +429,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="45">
     <border>
@@ -1022,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1303,6 +1311,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,112 +1474,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,64 +1495,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2953,17 +2973,1471 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
+    <oddHeader>&amp;L&amp;"Arial"&amp;11&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0162F44-B026-4EE8-9DFF-B6708F5A847E}">
+  <dimension ref="A1:BO67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="66" width="3.6328125" style="75" customWidth="1"/>
+    <col min="67" max="16384" width="8.7265625" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="77"/>
+      <c r="BN1" s="77"/>
+    </row>
+    <row r="2" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="94">
+        <v>0</v>
+      </c>
+      <c r="D2" s="95">
+        <v>1</v>
+      </c>
+      <c r="E2" s="95">
+        <v>2</v>
+      </c>
+      <c r="F2" s="95">
+        <v>3</v>
+      </c>
+      <c r="G2" s="95">
+        <v>4</v>
+      </c>
+      <c r="H2" s="95">
+        <v>5</v>
+      </c>
+      <c r="I2" s="95">
+        <v>6</v>
+      </c>
+      <c r="J2" s="95">
+        <v>7</v>
+      </c>
+      <c r="K2" s="95">
+        <v>8</v>
+      </c>
+      <c r="L2" s="95">
+        <v>9</v>
+      </c>
+      <c r="M2" s="95">
+        <v>10</v>
+      </c>
+      <c r="N2" s="95">
+        <v>11</v>
+      </c>
+      <c r="O2" s="95">
+        <v>12</v>
+      </c>
+      <c r="P2" s="95">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="95">
+        <v>14</v>
+      </c>
+      <c r="R2" s="95">
+        <v>15</v>
+      </c>
+      <c r="S2" s="95">
+        <v>16</v>
+      </c>
+      <c r="T2" s="95">
+        <v>17</v>
+      </c>
+      <c r="U2" s="95">
+        <v>18</v>
+      </c>
+      <c r="V2" s="95">
+        <v>19</v>
+      </c>
+      <c r="W2" s="95">
+        <v>20</v>
+      </c>
+      <c r="X2" s="95">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="95">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="95">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="95">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="95">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="95">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="95">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="95">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="95">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="95">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="95">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="95">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="95">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="95">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="95">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="95">
+        <v>36</v>
+      </c>
+      <c r="AN2" s="95">
+        <v>37</v>
+      </c>
+      <c r="AO2" s="95">
+        <v>38</v>
+      </c>
+      <c r="AP2" s="95">
+        <v>39</v>
+      </c>
+      <c r="AQ2" s="95">
+        <v>40</v>
+      </c>
+      <c r="AR2" s="95">
+        <v>41</v>
+      </c>
+      <c r="AS2" s="95">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="95">
+        <v>43</v>
+      </c>
+      <c r="AU2" s="95">
+        <v>44</v>
+      </c>
+      <c r="AV2" s="95">
+        <v>45</v>
+      </c>
+      <c r="AW2" s="95">
+        <v>46</v>
+      </c>
+      <c r="AX2" s="95">
+        <v>47</v>
+      </c>
+      <c r="AY2" s="95">
+        <v>48</v>
+      </c>
+      <c r="AZ2" s="95">
+        <v>49</v>
+      </c>
+      <c r="BA2" s="95">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="95">
+        <v>51</v>
+      </c>
+      <c r="BC2" s="95">
+        <v>52</v>
+      </c>
+      <c r="BD2" s="95">
+        <v>53</v>
+      </c>
+      <c r="BE2" s="95">
+        <v>54</v>
+      </c>
+      <c r="BF2" s="95">
+        <v>55</v>
+      </c>
+      <c r="BG2" s="95">
+        <v>56</v>
+      </c>
+      <c r="BH2" s="95">
+        <v>57</v>
+      </c>
+      <c r="BI2" s="95">
+        <v>58</v>
+      </c>
+      <c r="BJ2" s="95">
+        <v>59</v>
+      </c>
+      <c r="BK2" s="95">
+        <v>60</v>
+      </c>
+      <c r="BL2" s="95">
+        <v>61</v>
+      </c>
+      <c r="BM2" s="95">
+        <v>62</v>
+      </c>
+      <c r="BN2" s="96">
+        <v>63</v>
+      </c>
+      <c r="BO2" s="76"/>
+    </row>
+    <row r="3" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="141"/>
+      <c r="B3" s="98">
+        <v>0</v>
+      </c>
+      <c r="C3" s="133"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="146" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="147"/>
+      <c r="H3" s="146" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="147"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="93"/>
+      <c r="BM3" s="93"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="76"/>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A4" s="142"/>
+      <c r="B4" s="99">
+        <v>1</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="134"/>
+      <c r="BN4" s="82"/>
+      <c r="BO4" s="76"/>
+    </row>
+    <row r="5" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="142"/>
+      <c r="B5" s="99">
+        <v>2</v>
+      </c>
+      <c r="C5" s="148" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="158"/>
+      <c r="E5" s="104"/>
+      <c r="BN5" s="82"/>
+      <c r="BO5" s="76"/>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A6" s="142"/>
+      <c r="B6" s="99">
+        <v>3</v>
+      </c>
+      <c r="C6" s="149"/>
+      <c r="E6" s="158"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="76"/>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A7" s="142"/>
+      <c r="B7" s="99">
+        <v>4</v>
+      </c>
+      <c r="C7" s="150"/>
+      <c r="BN7" s="82"/>
+      <c r="BO7" s="76"/>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A8" s="142"/>
+      <c r="B8" s="99">
+        <v>5</v>
+      </c>
+      <c r="C8" s="151" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN8" s="82"/>
+      <c r="BO8" s="76"/>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A9" s="142"/>
+      <c r="B9" s="99">
+        <v>6</v>
+      </c>
+      <c r="C9" s="152"/>
+      <c r="BN9" s="82"/>
+      <c r="BO9" s="76"/>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A10" s="142"/>
+      <c r="B10" s="99">
+        <v>7</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="BN10" s="82"/>
+      <c r="BO10" s="76"/>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A11" s="142"/>
+      <c r="B11" s="99">
+        <v>8</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="BN11" s="82"/>
+      <c r="BO11" s="76"/>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A12" s="142"/>
+      <c r="B12" s="99">
+        <v>9</v>
+      </c>
+      <c r="C12" s="81"/>
+      <c r="BN12" s="82"/>
+      <c r="BO12" s="76"/>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A13" s="142"/>
+      <c r="B13" s="99">
+        <v>10</v>
+      </c>
+      <c r="C13" s="81"/>
+      <c r="BN13" s="82"/>
+      <c r="BO13" s="76"/>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A14" s="142"/>
+      <c r="B14" s="99">
+        <v>11</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="BN14" s="82"/>
+      <c r="BO14" s="76"/>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A15" s="142"/>
+      <c r="B15" s="99">
+        <v>12</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="BN15" s="82"/>
+      <c r="BO15" s="76"/>
+    </row>
+    <row r="16" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A16" s="142"/>
+      <c r="B16" s="99">
+        <v>13</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="BN16" s="82"/>
+      <c r="BO16" s="76"/>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A17" s="142"/>
+      <c r="B17" s="99">
+        <v>14</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="BN17" s="82"/>
+      <c r="BO17" s="76"/>
+    </row>
+    <row r="18" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="142"/>
+      <c r="B18" s="99">
+        <v>15</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
+      <c r="AK18" s="84"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
+      <c r="AS18" s="84"/>
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="84"/>
+      <c r="AV18" s="84"/>
+      <c r="AW18" s="84"/>
+      <c r="AX18" s="84"/>
+      <c r="AY18" s="84"/>
+      <c r="AZ18" s="84"/>
+      <c r="BA18" s="84"/>
+      <c r="BB18" s="84"/>
+      <c r="BC18" s="84"/>
+      <c r="BD18" s="84"/>
+      <c r="BE18" s="84"/>
+      <c r="BF18" s="84"/>
+      <c r="BG18" s="84"/>
+      <c r="BH18" s="84"/>
+      <c r="BI18" s="84"/>
+      <c r="BJ18" s="84"/>
+      <c r="BK18" s="84"/>
+      <c r="BL18" s="84"/>
+      <c r="BM18" s="84"/>
+      <c r="BN18" s="85"/>
+      <c r="BO18" s="76"/>
+    </row>
+    <row r="19" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="142"/>
+      <c r="B19" s="99">
+        <v>16</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="93"/>
+      <c r="AJ19" s="93"/>
+      <c r="AK19" s="93"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="93"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="93"/>
+      <c r="AQ19" s="93"/>
+      <c r="AR19" s="93"/>
+      <c r="AS19" s="93"/>
+      <c r="AT19" s="93"/>
+      <c r="AU19" s="93"/>
+      <c r="AV19" s="93"/>
+      <c r="AW19" s="93"/>
+      <c r="AX19" s="93"/>
+      <c r="AY19" s="93"/>
+      <c r="AZ19" s="93"/>
+      <c r="BA19" s="93"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="93"/>
+      <c r="BD19" s="93"/>
+      <c r="BE19" s="93"/>
+      <c r="BF19" s="93"/>
+      <c r="BG19" s="93"/>
+      <c r="BH19" s="93"/>
+      <c r="BI19" s="93"/>
+      <c r="BJ19" s="93"/>
+      <c r="BK19" s="93"/>
+      <c r="BL19" s="93"/>
+      <c r="BM19" s="93"/>
+      <c r="BN19" s="80"/>
+      <c r="BO19" s="76"/>
+    </row>
+    <row r="20" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="142"/>
+      <c r="B20" s="99">
+        <v>17</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="D20" s="136"/>
+      <c r="BN20" s="82"/>
+      <c r="BO20" s="76"/>
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A21" s="142"/>
+      <c r="B21" s="99">
+        <v>18</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="107"/>
+      <c r="BN21" s="82"/>
+      <c r="BO21" s="76"/>
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A22" s="142"/>
+      <c r="B22" s="99">
+        <v>19</v>
+      </c>
+      <c r="C22" s="81"/>
+      <c r="E22" s="158"/>
+      <c r="BN22" s="82"/>
+      <c r="BO22" s="76"/>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A23" s="142"/>
+      <c r="B23" s="99">
+        <v>20</v>
+      </c>
+      <c r="C23" s="81"/>
+      <c r="BN23" s="82"/>
+      <c r="BO23" s="76"/>
+    </row>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A24" s="142"/>
+      <c r="B24" s="99">
+        <v>21</v>
+      </c>
+      <c r="C24" s="81"/>
+      <c r="BN24" s="82"/>
+      <c r="BO24" s="76"/>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A25" s="142"/>
+      <c r="B25" s="99">
+        <v>22</v>
+      </c>
+      <c r="C25" s="81"/>
+      <c r="BN25" s="82"/>
+      <c r="BO25" s="76"/>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A26" s="142"/>
+      <c r="B26" s="99">
+        <v>23</v>
+      </c>
+      <c r="C26" s="81"/>
+      <c r="BN26" s="82"/>
+      <c r="BO26" s="76"/>
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A27" s="142"/>
+      <c r="B27" s="99">
+        <v>24</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="BN27" s="82"/>
+      <c r="BO27" s="76"/>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A28" s="142"/>
+      <c r="B28" s="99">
+        <v>25</v>
+      </c>
+      <c r="C28" s="81"/>
+      <c r="BN28" s="82"/>
+      <c r="BO28" s="76"/>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A29" s="142"/>
+      <c r="B29" s="99">
+        <v>26</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="BN29" s="82"/>
+      <c r="BO29" s="76"/>
+    </row>
+    <row r="30" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A30" s="142"/>
+      <c r="B30" s="99">
+        <v>27</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="BN30" s="82"/>
+      <c r="BO30" s="76"/>
+    </row>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A31" s="142"/>
+      <c r="B31" s="99">
+        <v>28</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="BN31" s="82"/>
+      <c r="BO31" s="76"/>
+    </row>
+    <row r="32" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A32" s="142"/>
+      <c r="B32" s="99">
+        <v>29</v>
+      </c>
+      <c r="C32" s="81"/>
+      <c r="BN32" s="82"/>
+      <c r="BO32" s="76"/>
+    </row>
+    <row r="33" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A33" s="142"/>
+      <c r="B33" s="99">
+        <v>30</v>
+      </c>
+      <c r="C33" s="81"/>
+      <c r="BN33" s="82"/>
+      <c r="BO33" s="76"/>
+    </row>
+    <row r="34" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="142"/>
+      <c r="B34" s="99">
+        <v>31</v>
+      </c>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="84"/>
+      <c r="AC34" s="84"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="84"/>
+      <c r="AF34" s="84"/>
+      <c r="AG34" s="84"/>
+      <c r="AH34" s="84"/>
+      <c r="AI34" s="84"/>
+      <c r="AJ34" s="84"/>
+      <c r="AK34" s="84"/>
+      <c r="AL34" s="84"/>
+      <c r="AM34" s="84"/>
+      <c r="AN34" s="84"/>
+      <c r="AO34" s="84"/>
+      <c r="AP34" s="84"/>
+      <c r="AQ34" s="84"/>
+      <c r="AR34" s="84"/>
+      <c r="AS34" s="84"/>
+      <c r="AT34" s="84"/>
+      <c r="AU34" s="84"/>
+      <c r="AV34" s="84"/>
+      <c r="AW34" s="84"/>
+      <c r="AX34" s="84"/>
+      <c r="AY34" s="84"/>
+      <c r="AZ34" s="84"/>
+      <c r="BA34" s="84"/>
+      <c r="BB34" s="84"/>
+      <c r="BC34" s="84"/>
+      <c r="BD34" s="84"/>
+      <c r="BE34" s="84"/>
+      <c r="BF34" s="84"/>
+      <c r="BG34" s="84"/>
+      <c r="BH34" s="84"/>
+      <c r="BI34" s="84"/>
+      <c r="BJ34" s="84"/>
+      <c r="BK34" s="84"/>
+      <c r="BL34" s="84"/>
+      <c r="BM34" s="84"/>
+      <c r="BN34" s="85"/>
+      <c r="BO34" s="76"/>
+    </row>
+    <row r="35" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="142"/>
+      <c r="B35" s="99">
+        <v>32</v>
+      </c>
+      <c r="C35" s="137"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="93"/>
+      <c r="AJ35" s="93"/>
+      <c r="AK35" s="93"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="93"/>
+      <c r="AN35" s="93"/>
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="93"/>
+      <c r="AQ35" s="93"/>
+      <c r="AR35" s="93"/>
+      <c r="AS35" s="93"/>
+      <c r="AT35" s="93"/>
+      <c r="AU35" s="93"/>
+      <c r="AV35" s="93"/>
+      <c r="AW35" s="93"/>
+      <c r="AX35" s="93"/>
+      <c r="AY35" s="93"/>
+      <c r="AZ35" s="93"/>
+      <c r="BA35" s="93"/>
+      <c r="BB35" s="93"/>
+      <c r="BC35" s="93"/>
+      <c r="BD35" s="93"/>
+      <c r="BE35" s="93"/>
+      <c r="BF35" s="93"/>
+      <c r="BG35" s="93"/>
+      <c r="BH35" s="93"/>
+      <c r="BI35" s="93"/>
+      <c r="BJ35" s="93"/>
+      <c r="BK35" s="93"/>
+      <c r="BL35" s="93"/>
+      <c r="BM35" s="93"/>
+      <c r="BN35" s="80"/>
+      <c r="BO35" s="76"/>
+    </row>
+    <row r="36" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="142"/>
+      <c r="B36" s="99">
+        <v>33</v>
+      </c>
+      <c r="C36" s="111"/>
+      <c r="D36" s="138"/>
+      <c r="BN36" s="82"/>
+      <c r="BO36" s="76"/>
+    </row>
+    <row r="37" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A37" s="142"/>
+      <c r="B37" s="99">
+        <v>34</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="108"/>
+      <c r="BN37" s="82"/>
+      <c r="BO37" s="76"/>
+    </row>
+    <row r="38" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A38" s="142"/>
+      <c r="B38" s="99">
+        <v>35</v>
+      </c>
+      <c r="C38" s="81"/>
+      <c r="E38" s="158"/>
+      <c r="BN38" s="82"/>
+      <c r="BO38" s="76"/>
+    </row>
+    <row r="39" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A39" s="142"/>
+      <c r="B39" s="99">
+        <v>36</v>
+      </c>
+      <c r="C39" s="81"/>
+      <c r="BN39" s="82"/>
+      <c r="BO39" s="76"/>
+    </row>
+    <row r="40" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A40" s="142"/>
+      <c r="B40" s="99">
+        <v>37</v>
+      </c>
+      <c r="C40" s="81"/>
+      <c r="BN40" s="82"/>
+      <c r="BO40" s="76"/>
+    </row>
+    <row r="41" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A41" s="142"/>
+      <c r="B41" s="99">
+        <v>38</v>
+      </c>
+      <c r="C41" s="81"/>
+      <c r="BN41" s="82"/>
+      <c r="BO41" s="76"/>
+    </row>
+    <row r="42" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A42" s="142"/>
+      <c r="B42" s="99">
+        <v>39</v>
+      </c>
+      <c r="C42" s="81"/>
+      <c r="BN42" s="82"/>
+      <c r="BO42" s="76"/>
+    </row>
+    <row r="43" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A43" s="142"/>
+      <c r="B43" s="99">
+        <v>40</v>
+      </c>
+      <c r="C43" s="81"/>
+      <c r="BN43" s="82"/>
+      <c r="BO43" s="76"/>
+    </row>
+    <row r="44" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A44" s="142"/>
+      <c r="B44" s="99">
+        <v>41</v>
+      </c>
+      <c r="C44" s="81"/>
+      <c r="BN44" s="82"/>
+      <c r="BO44" s="76"/>
+    </row>
+    <row r="45" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A45" s="142"/>
+      <c r="B45" s="99">
+        <v>42</v>
+      </c>
+      <c r="C45" s="81"/>
+      <c r="BN45" s="82"/>
+      <c r="BO45" s="76"/>
+    </row>
+    <row r="46" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A46" s="142"/>
+      <c r="B46" s="99">
+        <v>43</v>
+      </c>
+      <c r="C46" s="81"/>
+      <c r="BN46" s="82"/>
+      <c r="BO46" s="76"/>
+    </row>
+    <row r="47" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A47" s="142"/>
+      <c r="B47" s="99">
+        <v>44</v>
+      </c>
+      <c r="C47" s="81"/>
+      <c r="BN47" s="82"/>
+      <c r="BO47" s="76"/>
+    </row>
+    <row r="48" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A48" s="142"/>
+      <c r="B48" s="99">
+        <v>45</v>
+      </c>
+      <c r="C48" s="81"/>
+      <c r="BN48" s="82"/>
+      <c r="BO48" s="76"/>
+    </row>
+    <row r="49" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A49" s="142"/>
+      <c r="B49" s="99">
+        <v>46</v>
+      </c>
+      <c r="C49" s="81"/>
+      <c r="BN49" s="82"/>
+      <c r="BO49" s="76"/>
+    </row>
+    <row r="50" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="142"/>
+      <c r="B50" s="99">
+        <v>47</v>
+      </c>
+      <c r="C50" s="83"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="84"/>
+      <c r="U50" s="84"/>
+      <c r="V50" s="84"/>
+      <c r="W50" s="84"/>
+      <c r="X50" s="84"/>
+      <c r="Y50" s="84"/>
+      <c r="Z50" s="84"/>
+      <c r="AA50" s="84"/>
+      <c r="AB50" s="84"/>
+      <c r="AC50" s="84"/>
+      <c r="AD50" s="84"/>
+      <c r="AE50" s="84"/>
+      <c r="AF50" s="84"/>
+      <c r="AG50" s="84"/>
+      <c r="AH50" s="84"/>
+      <c r="AI50" s="84"/>
+      <c r="AJ50" s="84"/>
+      <c r="AK50" s="84"/>
+      <c r="AL50" s="84"/>
+      <c r="AM50" s="84"/>
+      <c r="AN50" s="84"/>
+      <c r="AO50" s="84"/>
+      <c r="AP50" s="84"/>
+      <c r="AQ50" s="84"/>
+      <c r="AR50" s="84"/>
+      <c r="AS50" s="84"/>
+      <c r="AT50" s="84"/>
+      <c r="AU50" s="84"/>
+      <c r="AV50" s="84"/>
+      <c r="AW50" s="84"/>
+      <c r="AX50" s="84"/>
+      <c r="AY50" s="84"/>
+      <c r="AZ50" s="84"/>
+      <c r="BA50" s="84"/>
+      <c r="BB50" s="84"/>
+      <c r="BC50" s="84"/>
+      <c r="BD50" s="84"/>
+      <c r="BE50" s="84"/>
+      <c r="BF50" s="84"/>
+      <c r="BG50" s="84"/>
+      <c r="BH50" s="84"/>
+      <c r="BI50" s="84"/>
+      <c r="BJ50" s="84"/>
+      <c r="BK50" s="84"/>
+      <c r="BL50" s="84"/>
+      <c r="BM50" s="84"/>
+      <c r="BN50" s="85"/>
+      <c r="BO50" s="76"/>
+    </row>
+    <row r="51" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="142"/>
+      <c r="B51" s="99">
+        <v>48</v>
+      </c>
+      <c r="C51" s="139"/>
+      <c r="D51" s="157"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="93"/>
+      <c r="W51" s="93"/>
+      <c r="X51" s="93"/>
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="93"/>
+      <c r="AB51" s="93"/>
+      <c r="AC51" s="93"/>
+      <c r="AD51" s="93"/>
+      <c r="AE51" s="93"/>
+      <c r="AF51" s="93"/>
+      <c r="AG51" s="93"/>
+      <c r="AH51" s="93"/>
+      <c r="AI51" s="93"/>
+      <c r="AJ51" s="93"/>
+      <c r="AK51" s="93"/>
+      <c r="AL51" s="93"/>
+      <c r="AM51" s="93"/>
+      <c r="AN51" s="93"/>
+      <c r="AO51" s="93"/>
+      <c r="AP51" s="93"/>
+      <c r="AQ51" s="93"/>
+      <c r="AR51" s="93"/>
+      <c r="AS51" s="93"/>
+      <c r="AT51" s="93"/>
+      <c r="AU51" s="93"/>
+      <c r="AV51" s="93"/>
+      <c r="AW51" s="93"/>
+      <c r="AX51" s="93"/>
+      <c r="AY51" s="93"/>
+      <c r="AZ51" s="93"/>
+      <c r="BA51" s="93"/>
+      <c r="BB51" s="93"/>
+      <c r="BC51" s="93"/>
+      <c r="BD51" s="93"/>
+      <c r="BE51" s="93"/>
+      <c r="BF51" s="93"/>
+      <c r="BG51" s="93"/>
+      <c r="BH51" s="93"/>
+      <c r="BI51" s="93"/>
+      <c r="BJ51" s="93"/>
+      <c r="BK51" s="93"/>
+      <c r="BL51" s="93"/>
+      <c r="BM51" s="93"/>
+      <c r="BN51" s="80"/>
+      <c r="BO51" s="76"/>
+    </row>
+    <row r="52" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="142"/>
+      <c r="B52" s="99">
+        <v>49</v>
+      </c>
+      <c r="C52" s="112"/>
+      <c r="D52" s="140"/>
+      <c r="BN52" s="82"/>
+      <c r="BO52" s="76"/>
+    </row>
+    <row r="53" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A53" s="142"/>
+      <c r="B53" s="99">
+        <v>50</v>
+      </c>
+      <c r="C53" s="81"/>
+      <c r="E53" s="109"/>
+      <c r="BN53" s="82"/>
+      <c r="BO53" s="76"/>
+    </row>
+    <row r="54" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A54" s="142"/>
+      <c r="B54" s="99">
+        <v>51</v>
+      </c>
+      <c r="C54" s="81"/>
+      <c r="BN54" s="82"/>
+      <c r="BO54" s="76"/>
+    </row>
+    <row r="55" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A55" s="142"/>
+      <c r="B55" s="99">
+        <v>52</v>
+      </c>
+      <c r="C55" s="81"/>
+      <c r="BN55" s="82"/>
+      <c r="BO55" s="76"/>
+    </row>
+    <row r="56" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A56" s="142"/>
+      <c r="B56" s="99">
+        <v>53</v>
+      </c>
+      <c r="C56" s="81"/>
+      <c r="BN56" s="82"/>
+      <c r="BO56" s="76"/>
+    </row>
+    <row r="57" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A57" s="142"/>
+      <c r="B57" s="99">
+        <v>54</v>
+      </c>
+      <c r="C57" s="81"/>
+      <c r="BN57" s="82"/>
+      <c r="BO57" s="76"/>
+    </row>
+    <row r="58" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A58" s="142"/>
+      <c r="B58" s="99">
+        <v>55</v>
+      </c>
+      <c r="C58" s="81"/>
+      <c r="BN58" s="82"/>
+      <c r="BO58" s="76"/>
+    </row>
+    <row r="59" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A59" s="142"/>
+      <c r="B59" s="99">
+        <v>56</v>
+      </c>
+      <c r="C59" s="81"/>
+      <c r="BN59" s="82"/>
+      <c r="BO59" s="76"/>
+    </row>
+    <row r="60" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A60" s="142"/>
+      <c r="B60" s="99">
+        <v>57</v>
+      </c>
+      <c r="C60" s="81"/>
+      <c r="BN60" s="82"/>
+      <c r="BO60" s="76"/>
+    </row>
+    <row r="61" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A61" s="142"/>
+      <c r="B61" s="99">
+        <v>58</v>
+      </c>
+      <c r="C61" s="81"/>
+      <c r="BN61" s="82"/>
+      <c r="BO61" s="76"/>
+    </row>
+    <row r="62" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A62" s="142"/>
+      <c r="B62" s="99">
+        <v>59</v>
+      </c>
+      <c r="C62" s="81"/>
+      <c r="BN62" s="82"/>
+      <c r="BO62" s="76"/>
+    </row>
+    <row r="63" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A63" s="142"/>
+      <c r="B63" s="99">
+        <v>60</v>
+      </c>
+      <c r="C63" s="81"/>
+      <c r="BN63" s="82"/>
+      <c r="BO63" s="76"/>
+    </row>
+    <row r="64" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A64" s="142"/>
+      <c r="B64" s="99">
+        <v>61</v>
+      </c>
+      <c r="C64" s="81"/>
+      <c r="BN64" s="82"/>
+      <c r="BO64" s="76"/>
+    </row>
+    <row r="65" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A65" s="142"/>
+      <c r="B65" s="99">
+        <v>62</v>
+      </c>
+      <c r="C65" s="81"/>
+      <c r="BN65" s="82"/>
+      <c r="BO65" s="76"/>
+    </row>
+    <row r="66" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="143"/>
+      <c r="B66" s="100">
+        <v>63</v>
+      </c>
+      <c r="C66" s="83"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="84"/>
+      <c r="S66" s="84"/>
+      <c r="T66" s="84"/>
+      <c r="U66" s="84"/>
+      <c r="V66" s="84"/>
+      <c r="W66" s="84"/>
+      <c r="X66" s="84"/>
+      <c r="Y66" s="84"/>
+      <c r="Z66" s="84"/>
+      <c r="AA66" s="84"/>
+      <c r="AB66" s="84"/>
+      <c r="AC66" s="84"/>
+      <c r="AD66" s="84"/>
+      <c r="AE66" s="84"/>
+      <c r="AF66" s="84"/>
+      <c r="AG66" s="84"/>
+      <c r="AH66" s="84"/>
+      <c r="AI66" s="84"/>
+      <c r="AJ66" s="84"/>
+      <c r="AK66" s="84"/>
+      <c r="AL66" s="84"/>
+      <c r="AM66" s="84"/>
+      <c r="AN66" s="84"/>
+      <c r="AO66" s="84"/>
+      <c r="AP66" s="84"/>
+      <c r="AQ66" s="84"/>
+      <c r="AR66" s="84"/>
+      <c r="AS66" s="84"/>
+      <c r="AT66" s="84"/>
+      <c r="AU66" s="84"/>
+      <c r="AV66" s="84"/>
+      <c r="AW66" s="84"/>
+      <c r="AX66" s="84"/>
+      <c r="AY66" s="84"/>
+      <c r="AZ66" s="84"/>
+      <c r="BA66" s="84"/>
+      <c r="BB66" s="84"/>
+      <c r="BC66" s="84"/>
+      <c r="BD66" s="84"/>
+      <c r="BE66" s="84"/>
+      <c r="BF66" s="84"/>
+      <c r="BG66" s="84"/>
+      <c r="BH66" s="84"/>
+      <c r="BI66" s="84"/>
+      <c r="BJ66" s="84"/>
+      <c r="BK66" s="84"/>
+      <c r="BL66" s="84"/>
+      <c r="BM66" s="84"/>
+      <c r="BN66" s="85"/>
+      <c r="BO66" s="76"/>
+    </row>
+    <row r="67" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A67" s="78"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="78"/>
+      <c r="R67" s="78"/>
+      <c r="S67" s="78"/>
+      <c r="T67" s="78"/>
+      <c r="U67" s="78"/>
+      <c r="V67" s="78"/>
+      <c r="W67" s="78"/>
+      <c r="X67" s="78"/>
+      <c r="Y67" s="78"/>
+      <c r="Z67" s="78"/>
+      <c r="AA67" s="78"/>
+      <c r="AB67" s="78"/>
+      <c r="AC67" s="78"/>
+      <c r="AD67" s="78"/>
+      <c r="AE67" s="78"/>
+      <c r="AF67" s="78"/>
+      <c r="AG67" s="78"/>
+      <c r="AH67" s="78"/>
+      <c r="AI67" s="78"/>
+      <c r="AJ67" s="78"/>
+      <c r="AK67" s="78"/>
+      <c r="AL67" s="78"/>
+      <c r="AM67" s="78"/>
+      <c r="AN67" s="78"/>
+      <c r="AO67" s="78"/>
+      <c r="AP67" s="78"/>
+      <c r="AQ67" s="78"/>
+      <c r="AR67" s="78"/>
+      <c r="AS67" s="78"/>
+      <c r="AT67" s="78"/>
+      <c r="AU67" s="78"/>
+      <c r="AV67" s="78"/>
+      <c r="AW67" s="78"/>
+      <c r="AX67" s="78"/>
+      <c r="AY67" s="78"/>
+      <c r="AZ67" s="78"/>
+      <c r="BA67" s="78"/>
+      <c r="BB67" s="78"/>
+      <c r="BC67" s="78"/>
+      <c r="BD67" s="78"/>
+      <c r="BE67" s="78"/>
+      <c r="BF67" s="78"/>
+      <c r="BG67" s="78"/>
+      <c r="BH67" s="78"/>
+      <c r="BI67" s="78"/>
+      <c r="BJ67" s="78"/>
+      <c r="BK67" s="78"/>
+      <c r="BL67" s="78"/>
+      <c r="BM67" s="78"/>
+      <c r="BN67" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;L&amp;"Arial"&amp;10&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0695A1EF-ECA0-4736-95B8-E9AB8C444F0B}">
   <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3041,198 +4515,198 @@
       <c r="BN1" s="77"/>
     </row>
     <row r="2" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="108">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="101">
         <v>0</v>
       </c>
-      <c r="D2" s="109">
+      <c r="D2" s="102">
         <v>1</v>
       </c>
-      <c r="E2" s="109">
+      <c r="E2" s="102">
         <v>2</v>
       </c>
-      <c r="F2" s="109">
+      <c r="F2" s="102">
         <v>3</v>
       </c>
-      <c r="G2" s="109">
+      <c r="G2" s="102">
         <v>4</v>
       </c>
-      <c r="H2" s="109">
+      <c r="H2" s="102">
         <v>5</v>
       </c>
-      <c r="I2" s="109">
+      <c r="I2" s="102">
         <v>6</v>
       </c>
-      <c r="J2" s="109">
+      <c r="J2" s="102">
         <v>7</v>
       </c>
-      <c r="K2" s="109">
+      <c r="K2" s="102">
         <v>8</v>
       </c>
-      <c r="L2" s="109">
+      <c r="L2" s="102">
         <v>9</v>
       </c>
-      <c r="M2" s="109">
+      <c r="M2" s="102">
         <v>10</v>
       </c>
-      <c r="N2" s="109">
+      <c r="N2" s="102">
         <v>11</v>
       </c>
-      <c r="O2" s="109">
+      <c r="O2" s="102">
         <v>12</v>
       </c>
-      <c r="P2" s="109">
+      <c r="P2" s="102">
         <v>13</v>
       </c>
-      <c r="Q2" s="109">
+      <c r="Q2" s="102">
         <v>14</v>
       </c>
-      <c r="R2" s="109">
+      <c r="R2" s="102">
         <v>15</v>
       </c>
-      <c r="S2" s="109">
+      <c r="S2" s="102">
         <v>16</v>
       </c>
-      <c r="T2" s="109">
+      <c r="T2" s="102">
         <v>17</v>
       </c>
-      <c r="U2" s="109">
+      <c r="U2" s="102">
         <v>18</v>
       </c>
-      <c r="V2" s="109">
+      <c r="V2" s="102">
         <v>19</v>
       </c>
-      <c r="W2" s="109">
+      <c r="W2" s="102">
         <v>20</v>
       </c>
-      <c r="X2" s="109">
+      <c r="X2" s="102">
         <v>21</v>
       </c>
-      <c r="Y2" s="109">
+      <c r="Y2" s="102">
         <v>22</v>
       </c>
-      <c r="Z2" s="109">
+      <c r="Z2" s="102">
         <v>23</v>
       </c>
-      <c r="AA2" s="109">
+      <c r="AA2" s="102">
         <v>24</v>
       </c>
-      <c r="AB2" s="109">
+      <c r="AB2" s="102">
         <v>25</v>
       </c>
-      <c r="AC2" s="109">
+      <c r="AC2" s="102">
         <v>26</v>
       </c>
-      <c r="AD2" s="109">
+      <c r="AD2" s="102">
         <v>27</v>
       </c>
-      <c r="AE2" s="109">
+      <c r="AE2" s="102">
         <v>28</v>
       </c>
-      <c r="AF2" s="109">
+      <c r="AF2" s="102">
         <v>29</v>
       </c>
-      <c r="AG2" s="109">
+      <c r="AG2" s="102">
         <v>30</v>
       </c>
-      <c r="AH2" s="109">
+      <c r="AH2" s="102">
         <v>31</v>
       </c>
-      <c r="AI2" s="109">
+      <c r="AI2" s="102">
         <v>32</v>
       </c>
-      <c r="AJ2" s="109">
+      <c r="AJ2" s="102">
         <v>33</v>
       </c>
-      <c r="AK2" s="109">
+      <c r="AK2" s="102">
         <v>34</v>
       </c>
-      <c r="AL2" s="109">
+      <c r="AL2" s="102">
         <v>35</v>
       </c>
-      <c r="AM2" s="109">
+      <c r="AM2" s="102">
         <v>36</v>
       </c>
-      <c r="AN2" s="109">
+      <c r="AN2" s="102">
         <v>37</v>
       </c>
-      <c r="AO2" s="109">
+      <c r="AO2" s="102">
         <v>38</v>
       </c>
-      <c r="AP2" s="109">
+      <c r="AP2" s="102">
         <v>39</v>
       </c>
-      <c r="AQ2" s="109">
+      <c r="AQ2" s="102">
         <v>40</v>
       </c>
-      <c r="AR2" s="109">
+      <c r="AR2" s="102">
         <v>41</v>
       </c>
-      <c r="AS2" s="109">
+      <c r="AS2" s="102">
         <v>42</v>
       </c>
-      <c r="AT2" s="109">
+      <c r="AT2" s="102">
         <v>43</v>
       </c>
-      <c r="AU2" s="109">
+      <c r="AU2" s="102">
         <v>44</v>
       </c>
-      <c r="AV2" s="109">
+      <c r="AV2" s="102">
         <v>45</v>
       </c>
-      <c r="AW2" s="109">
+      <c r="AW2" s="102">
         <v>46</v>
       </c>
-      <c r="AX2" s="109">
+      <c r="AX2" s="102">
         <v>47</v>
       </c>
-      <c r="AY2" s="109">
+      <c r="AY2" s="102">
         <v>48</v>
       </c>
-      <c r="AZ2" s="109">
+      <c r="AZ2" s="102">
         <v>49</v>
       </c>
-      <c r="BA2" s="109">
+      <c r="BA2" s="102">
         <v>50</v>
       </c>
-      <c r="BB2" s="109">
+      <c r="BB2" s="102">
         <v>51</v>
       </c>
-      <c r="BC2" s="109">
+      <c r="BC2" s="102">
         <v>52</v>
       </c>
-      <c r="BD2" s="109">
+      <c r="BD2" s="102">
         <v>53</v>
       </c>
-      <c r="BE2" s="109">
+      <c r="BE2" s="102">
         <v>54</v>
       </c>
-      <c r="BF2" s="109">
+      <c r="BF2" s="102">
         <v>55</v>
       </c>
-      <c r="BG2" s="109">
+      <c r="BG2" s="102">
         <v>56</v>
       </c>
-      <c r="BH2" s="109">
+      <c r="BH2" s="102">
         <v>57</v>
       </c>
-      <c r="BI2" s="109">
+      <c r="BI2" s="102">
         <v>58</v>
       </c>
-      <c r="BJ2" s="109">
+      <c r="BJ2" s="102">
         <v>59</v>
       </c>
-      <c r="BK2" s="109">
+      <c r="BK2" s="102">
         <v>60</v>
       </c>
-      <c r="BL2" s="109">
+      <c r="BL2" s="102">
         <v>61</v>
       </c>
-      <c r="BM2" s="109">
+      <c r="BM2" s="102">
         <v>62</v>
       </c>
-      <c r="BN2" s="110">
+      <c r="BN2" s="103">
         <v>63</v>
       </c>
       <c r="BO2" s="76"/>
@@ -3241,20 +4715,20 @@
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A3" s="150"/>
-      <c r="B3" s="105">
+      <c r="A3" s="141"/>
+      <c r="B3" s="98">
         <v>0</v>
       </c>
-      <c r="C3" s="130"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="89"/>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93" t="s">
+      <c r="F3" s="153"/>
+      <c r="G3" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="153"/>
       <c r="I3" s="79"/>
       <c r="J3" s="79"/>
       <c r="K3" s="79"/>
@@ -3265,7 +4739,7 @@
       <c r="P3" s="79"/>
       <c r="Q3" s="79"/>
       <c r="R3" s="80"/>
-      <c r="S3" s="137"/>
+      <c r="S3" s="128"/>
       <c r="T3" s="90"/>
       <c r="U3" s="79"/>
       <c r="V3" s="79"/>
@@ -3281,7 +4755,7 @@
       <c r="AF3" s="79"/>
       <c r="AG3" s="79"/>
       <c r="AH3" s="80"/>
-      <c r="AI3" s="138"/>
+      <c r="AI3" s="129"/>
       <c r="AJ3" s="91"/>
       <c r="AK3" s="79"/>
       <c r="AL3" s="79"/>
@@ -3297,7 +4771,7 @@
       <c r="AV3" s="79"/>
       <c r="AW3" s="79"/>
       <c r="AX3" s="80"/>
-      <c r="AY3" s="139"/>
+      <c r="AY3" s="130"/>
       <c r="AZ3" s="92"/>
       <c r="BA3" s="79"/>
       <c r="BB3" s="79"/>
@@ -3319,20 +4793,20 @@
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A4" s="151"/>
-      <c r="B4" s="106">
+      <c r="A4" s="142"/>
+      <c r="B4" s="99">
         <v>1</v>
       </c>
-      <c r="C4" s="131"/>
+      <c r="C4" s="124"/>
       <c r="R4" s="82"/>
       <c r="S4" s="86"/>
-      <c r="T4" s="112"/>
+      <c r="T4" s="105"/>
       <c r="AH4" s="82"/>
       <c r="AI4" s="87"/>
-      <c r="AJ4" s="112"/>
+      <c r="AJ4" s="105"/>
       <c r="AX4" s="82"/>
       <c r="AY4" s="88"/>
-      <c r="AZ4" s="112"/>
+      <c r="AZ4" s="105"/>
       <c r="BN4" s="82"/>
       <c r="BO4" s="76"/>
       <c r="BP4" s="75" t="s">
@@ -3340,17 +4814,17 @@
       </c>
     </row>
     <row r="5" spans="1:68" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="151"/>
-      <c r="B5" s="106">
+      <c r="A5" s="142"/>
+      <c r="B5" s="99">
         <v>2</v>
       </c>
-      <c r="C5" s="132"/>
+      <c r="C5" s="125"/>
       <c r="R5" s="82"/>
-      <c r="S5" s="140"/>
+      <c r="S5" s="131"/>
       <c r="AH5" s="82"/>
-      <c r="AI5" s="153"/>
+      <c r="AI5" s="144"/>
       <c r="AX5" s="82"/>
-      <c r="AY5" s="141"/>
+      <c r="AY5" s="132"/>
       <c r="BN5" s="82"/>
       <c r="BO5" s="76"/>
       <c r="BP5" s="75" t="s">
@@ -3358,11 +4832,11 @@
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A6" s="151"/>
-      <c r="B6" s="106">
+      <c r="A6" s="142"/>
+      <c r="B6" s="99">
         <v>3</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="154" t="s">
         <v>72</v>
       </c>
       <c r="R6" s="82"/>
@@ -3375,11 +4849,11 @@
       <c r="BO6" s="76"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A7" s="151"/>
-      <c r="B7" s="106">
+      <c r="A7" s="142"/>
+      <c r="B7" s="99">
         <v>4</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="154"/>
       <c r="R7" s="82"/>
       <c r="S7" s="81"/>
       <c r="AH7" s="82"/>
@@ -3393,11 +4867,11 @@
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A8" s="151"/>
-      <c r="B8" s="106">
+      <c r="A8" s="142"/>
+      <c r="B8" s="99">
         <v>5</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="154"/>
       <c r="R8" s="82"/>
       <c r="S8" s="81"/>
       <c r="AH8" s="82"/>
@@ -3411,11 +4885,11 @@
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A9" s="151"/>
-      <c r="B9" s="106">
+      <c r="A9" s="142"/>
+      <c r="B9" s="99">
         <v>6</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="155" t="s">
         <v>66</v>
       </c>
       <c r="R9" s="82"/>
@@ -3431,11 +4905,11 @@
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A10" s="151"/>
-      <c r="B10" s="106">
+      <c r="A10" s="142"/>
+      <c r="B10" s="99">
         <v>7</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="155"/>
       <c r="R10" s="82"/>
       <c r="S10" s="81"/>
       <c r="AH10" s="82"/>
@@ -3449,8 +4923,8 @@
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A11" s="151"/>
-      <c r="B11" s="106">
+      <c r="A11" s="142"/>
+      <c r="B11" s="99">
         <v>8</v>
       </c>
       <c r="C11" s="76"/>
@@ -3464,8 +4938,8 @@
       <c r="BO11" s="76"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A12" s="151"/>
-      <c r="B12" s="106">
+      <c r="A12" s="142"/>
+      <c r="B12" s="99">
         <v>9</v>
       </c>
       <c r="C12" s="76"/>
@@ -3479,8 +4953,8 @@
       <c r="BO12" s="76"/>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A13" s="151"/>
-      <c r="B13" s="106">
+      <c r="A13" s="142"/>
+      <c r="B13" s="99">
         <v>10</v>
       </c>
       <c r="C13" s="76"/>
@@ -3494,8 +4968,8 @@
       <c r="BO13" s="76"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A14" s="151"/>
-      <c r="B14" s="106">
+      <c r="A14" s="142"/>
+      <c r="B14" s="99">
         <v>11</v>
       </c>
       <c r="C14" s="76"/>
@@ -3509,8 +4983,8 @@
       <c r="BO14" s="76"/>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A15" s="151"/>
-      <c r="B15" s="106">
+      <c r="A15" s="142"/>
+      <c r="B15" s="99">
         <v>12</v>
       </c>
       <c r="C15" s="76"/>
@@ -3524,8 +4998,8 @@
       <c r="BO15" s="76"/>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A16" s="151"/>
-      <c r="B16" s="106">
+      <c r="A16" s="142"/>
+      <c r="B16" s="99">
         <v>13</v>
       </c>
       <c r="C16" s="76"/>
@@ -3539,8 +5013,8 @@
       <c r="BO16" s="76"/>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A17" s="151"/>
-      <c r="B17" s="106">
+      <c r="A17" s="142"/>
+      <c r="B17" s="99">
         <v>14</v>
       </c>
       <c r="C17" s="76"/>
@@ -3554,8 +5028,8 @@
       <c r="BO17" s="76"/>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A18" s="151"/>
-      <c r="B18" s="106">
+      <c r="A18" s="142"/>
+      <c r="B18" s="99">
         <v>15</v>
       </c>
       <c r="C18" s="76"/>
@@ -3569,13 +5043,13 @@
       <c r="BO18" s="76"/>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A19" s="151"/>
-      <c r="B19" s="106">
+      <c r="A19" s="142"/>
+      <c r="B19" s="99">
         <v>16</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
       <c r="R19" s="82"/>
       <c r="S19" s="81"/>
       <c r="AH19" s="82"/>
@@ -3586,13 +5060,13 @@
       <c r="BO19" s="76"/>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A20" s="151"/>
-      <c r="B20" s="106">
+      <c r="A20" s="142"/>
+      <c r="B20" s="99">
         <v>17</v>
       </c>
-      <c r="C20" s="135"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
       <c r="R20" s="82"/>
       <c r="S20" s="81"/>
       <c r="AH20" s="82"/>
@@ -3603,8 +5077,8 @@
       <c r="BO20" s="76"/>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A21" s="151"/>
-      <c r="B21" s="106">
+      <c r="A21" s="142"/>
+      <c r="B21" s="99">
         <v>18</v>
       </c>
       <c r="C21" s="76"/>
@@ -3618,8 +5092,8 @@
       <c r="BO21" s="76"/>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A22" s="151"/>
-      <c r="B22" s="106">
+      <c r="A22" s="142"/>
+      <c r="B22" s="99">
         <v>19</v>
       </c>
       <c r="C22" s="76"/>
@@ -3633,8 +5107,8 @@
       <c r="BO22" s="76"/>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A23" s="151"/>
-      <c r="B23" s="106">
+      <c r="A23" s="142"/>
+      <c r="B23" s="99">
         <v>20</v>
       </c>
       <c r="C23" s="76"/>
@@ -3648,8 +5122,8 @@
       <c r="BO23" s="76"/>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A24" s="151"/>
-      <c r="B24" s="106">
+      <c r="A24" s="142"/>
+      <c r="B24" s="99">
         <v>21</v>
       </c>
       <c r="C24" s="76"/>
@@ -3663,8 +5137,8 @@
       <c r="BO24" s="76"/>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A25" s="151"/>
-      <c r="B25" s="106">
+      <c r="A25" s="142"/>
+      <c r="B25" s="99">
         <v>22</v>
       </c>
       <c r="C25" s="76"/>
@@ -3678,8 +5152,8 @@
       <c r="BO25" s="76"/>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A26" s="151"/>
-      <c r="B26" s="106">
+      <c r="A26" s="142"/>
+      <c r="B26" s="99">
         <v>23</v>
       </c>
       <c r="C26" s="76"/>
@@ -3693,8 +5167,8 @@
       <c r="BO26" s="76"/>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A27" s="151"/>
-      <c r="B27" s="106">
+      <c r="A27" s="142"/>
+      <c r="B27" s="99">
         <v>24</v>
       </c>
       <c r="C27" s="76"/>
@@ -3708,8 +5182,8 @@
       <c r="BO27" s="76"/>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A28" s="151"/>
-      <c r="B28" s="106">
+      <c r="A28" s="142"/>
+      <c r="B28" s="99">
         <v>25</v>
       </c>
       <c r="C28" s="76"/>
@@ -3723,8 +5197,8 @@
       <c r="BO28" s="76"/>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A29" s="151"/>
-      <c r="B29" s="106">
+      <c r="A29" s="142"/>
+      <c r="B29" s="99">
         <v>26</v>
       </c>
       <c r="C29" s="76"/>
@@ -3738,8 +5212,8 @@
       <c r="BO29" s="76"/>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A30" s="151"/>
-      <c r="B30" s="106">
+      <c r="A30" s="142"/>
+      <c r="B30" s="99">
         <v>27</v>
       </c>
       <c r="C30" s="76"/>
@@ -3753,8 +5227,8 @@
       <c r="BO30" s="76"/>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A31" s="151"/>
-      <c r="B31" s="106">
+      <c r="A31" s="142"/>
+      <c r="B31" s="99">
         <v>28</v>
       </c>
       <c r="C31" s="76"/>
@@ -3768,8 +5242,8 @@
       <c r="BO31" s="76"/>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A32" s="151"/>
-      <c r="B32" s="106">
+      <c r="A32" s="142"/>
+      <c r="B32" s="99">
         <v>29</v>
       </c>
       <c r="C32" s="76"/>
@@ -3783,8 +5257,8 @@
       <c r="BO32" s="76"/>
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A33" s="151"/>
-      <c r="B33" s="106">
+      <c r="A33" s="142"/>
+      <c r="B33" s="99">
         <v>30</v>
       </c>
       <c r="C33" s="76"/>
@@ -3798,8 +5272,8 @@
       <c r="BO33" s="76"/>
     </row>
     <row r="34" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A34" s="151"/>
-      <c r="B34" s="106">
+      <c r="A34" s="142"/>
+      <c r="B34" s="99">
         <v>31</v>
       </c>
       <c r="C34" s="76"/>
@@ -3813,13 +5287,13 @@
       <c r="BO34" s="76"/>
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A35" s="151"/>
-      <c r="B35" s="106">
+      <c r="A35" s="142"/>
+      <c r="B35" s="99">
         <v>32</v>
       </c>
-      <c r="C35" s="135"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
       <c r="R35" s="82"/>
       <c r="S35" s="81"/>
       <c r="AH35" s="82"/>
@@ -3830,13 +5304,13 @@
       <c r="BO35" s="76"/>
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A36" s="151"/>
-      <c r="B36" s="106">
+      <c r="A36" s="142"/>
+      <c r="B36" s="99">
         <v>33</v>
       </c>
-      <c r="C36" s="135"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
       <c r="R36" s="82"/>
       <c r="S36" s="81"/>
       <c r="AH36" s="82"/>
@@ -3847,13 +5321,13 @@
       <c r="BO36" s="76"/>
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A37" s="151"/>
-      <c r="B37" s="106">
+      <c r="A37" s="142"/>
+      <c r="B37" s="99">
         <v>34</v>
       </c>
-      <c r="C37" s="135"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
       <c r="R37" s="82"/>
       <c r="S37" s="81"/>
       <c r="AH37" s="82"/>
@@ -3864,13 +5338,13 @@
       <c r="BO37" s="76"/>
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A38" s="151"/>
-      <c r="B38" s="106">
+      <c r="A38" s="142"/>
+      <c r="B38" s="99">
         <v>35</v>
       </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
       <c r="R38" s="82"/>
       <c r="S38" s="81"/>
       <c r="AH38" s="82"/>
@@ -3881,13 +5355,13 @@
       <c r="BO38" s="76"/>
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A39" s="151"/>
-      <c r="B39" s="106">
+      <c r="A39" s="142"/>
+      <c r="B39" s="99">
         <v>36</v>
       </c>
-      <c r="C39" s="135"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
       <c r="R39" s="82"/>
       <c r="S39" s="81"/>
       <c r="AH39" s="82"/>
@@ -3898,13 +5372,13 @@
       <c r="BO39" s="76"/>
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A40" s="151"/>
-      <c r="B40" s="106">
+      <c r="A40" s="142"/>
+      <c r="B40" s="99">
         <v>37</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
       <c r="R40" s="82"/>
       <c r="S40" s="81"/>
       <c r="AH40" s="82"/>
@@ -3915,13 +5389,13 @@
       <c r="BO40" s="76"/>
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A41" s="151"/>
-      <c r="B41" s="106">
+      <c r="A41" s="142"/>
+      <c r="B41" s="99">
         <v>38</v>
       </c>
-      <c r="C41" s="135"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
       <c r="R41" s="82"/>
       <c r="S41" s="81"/>
       <c r="AH41" s="82"/>
@@ -3932,13 +5406,13 @@
       <c r="BO41" s="76"/>
     </row>
     <row r="42" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A42" s="151"/>
-      <c r="B42" s="106">
+      <c r="A42" s="142"/>
+      <c r="B42" s="99">
         <v>39</v>
       </c>
-      <c r="C42" s="135"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
       <c r="R42" s="82"/>
       <c r="S42" s="81"/>
       <c r="AH42" s="82"/>
@@ -3949,13 +5423,13 @@
       <c r="BO42" s="76"/>
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A43" s="151"/>
-      <c r="B43" s="106">
+      <c r="A43" s="142"/>
+      <c r="B43" s="99">
         <v>40</v>
       </c>
-      <c r="C43" s="135"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
       <c r="R43" s="82"/>
       <c r="S43" s="81"/>
       <c r="AH43" s="82"/>
@@ -3966,13 +5440,13 @@
       <c r="BO43" s="76"/>
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A44" s="151"/>
-      <c r="B44" s="106">
+      <c r="A44" s="142"/>
+      <c r="B44" s="99">
         <v>41</v>
       </c>
-      <c r="C44" s="135"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
       <c r="R44" s="82"/>
       <c r="S44" s="81"/>
       <c r="AH44" s="82"/>
@@ -3983,13 +5457,13 @@
       <c r="BO44" s="76"/>
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A45" s="151"/>
-      <c r="B45" s="106">
+      <c r="A45" s="142"/>
+      <c r="B45" s="99">
         <v>42</v>
       </c>
-      <c r="C45" s="135"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
       <c r="R45" s="82"/>
       <c r="S45" s="81"/>
       <c r="AH45" s="82"/>
@@ -4000,13 +5474,13 @@
       <c r="BO45" s="76"/>
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A46" s="151"/>
-      <c r="B46" s="106">
+      <c r="A46" s="142"/>
+      <c r="B46" s="99">
         <v>43</v>
       </c>
-      <c r="C46" s="135"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
       <c r="R46" s="82"/>
       <c r="S46" s="81"/>
       <c r="AH46" s="82"/>
@@ -4017,13 +5491,13 @@
       <c r="BO46" s="76"/>
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A47" s="151"/>
-      <c r="B47" s="106">
+      <c r="A47" s="142"/>
+      <c r="B47" s="99">
         <v>44</v>
       </c>
-      <c r="C47" s="135"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
       <c r="R47" s="82"/>
       <c r="S47" s="81"/>
       <c r="AH47" s="82"/>
@@ -4034,13 +5508,13 @@
       <c r="BO47" s="76"/>
     </row>
     <row r="48" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A48" s="151"/>
-      <c r="B48" s="106">
+      <c r="A48" s="142"/>
+      <c r="B48" s="99">
         <v>45</v>
       </c>
-      <c r="C48" s="135"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
       <c r="R48" s="82"/>
       <c r="S48" s="81"/>
       <c r="AH48" s="82"/>
@@ -4051,13 +5525,13 @@
       <c r="BO48" s="76"/>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A49" s="151"/>
-      <c r="B49" s="106">
+      <c r="A49" s="142"/>
+      <c r="B49" s="99">
         <v>46</v>
       </c>
-      <c r="C49" s="135"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
       <c r="R49" s="82"/>
       <c r="S49" s="81"/>
       <c r="AH49" s="82"/>
@@ -4068,13 +5542,13 @@
       <c r="BO49" s="76"/>
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A50" s="151"/>
-      <c r="B50" s="106">
+      <c r="A50" s="142"/>
+      <c r="B50" s="99">
         <v>47</v>
       </c>
-      <c r="C50" s="135"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
       <c r="R50" s="82"/>
       <c r="S50" s="81"/>
       <c r="AH50" s="82"/>
@@ -4085,13 +5559,13 @@
       <c r="BO50" s="76"/>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A51" s="151"/>
-      <c r="B51" s="106">
+      <c r="A51" s="142"/>
+      <c r="B51" s="99">
         <v>48</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
       <c r="R51" s="82"/>
       <c r="S51" s="81"/>
       <c r="AH51" s="82"/>
@@ -4102,13 +5576,13 @@
       <c r="BO51" s="76"/>
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A52" s="151"/>
-      <c r="B52" s="106">
+      <c r="A52" s="142"/>
+      <c r="B52" s="99">
         <v>49</v>
       </c>
-      <c r="C52" s="135"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
       <c r="R52" s="82"/>
       <c r="S52" s="81"/>
       <c r="AH52" s="82"/>
@@ -4119,8 +5593,8 @@
       <c r="BO52" s="76"/>
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A53" s="151"/>
-      <c r="B53" s="106">
+      <c r="A53" s="142"/>
+      <c r="B53" s="99">
         <v>50</v>
       </c>
       <c r="C53" s="76"/>
@@ -4134,8 +5608,8 @@
       <c r="BO53" s="76"/>
     </row>
     <row r="54" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A54" s="151"/>
-      <c r="B54" s="106">
+      <c r="A54" s="142"/>
+      <c r="B54" s="99">
         <v>51</v>
       </c>
       <c r="C54" s="76"/>
@@ -4149,8 +5623,8 @@
       <c r="BO54" s="76"/>
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A55" s="151"/>
-      <c r="B55" s="106">
+      <c r="A55" s="142"/>
+      <c r="B55" s="99">
         <v>52</v>
       </c>
       <c r="C55" s="76"/>
@@ -4164,8 +5638,8 @@
       <c r="BO55" s="76"/>
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A56" s="151"/>
-      <c r="B56" s="106">
+      <c r="A56" s="142"/>
+      <c r="B56" s="99">
         <v>53</v>
       </c>
       <c r="C56" s="76"/>
@@ -4179,8 +5653,8 @@
       <c r="BO56" s="76"/>
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A57" s="151"/>
-      <c r="B57" s="106">
+      <c r="A57" s="142"/>
+      <c r="B57" s="99">
         <v>54</v>
       </c>
       <c r="C57" s="76"/>
@@ -4194,8 +5668,8 @@
       <c r="BO57" s="76"/>
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A58" s="151"/>
-      <c r="B58" s="106">
+      <c r="A58" s="142"/>
+      <c r="B58" s="99">
         <v>55</v>
       </c>
       <c r="C58" s="76"/>
@@ -4209,8 +5683,8 @@
       <c r="BO58" s="76"/>
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A59" s="151"/>
-      <c r="B59" s="106">
+      <c r="A59" s="142"/>
+      <c r="B59" s="99">
         <v>56</v>
       </c>
       <c r="C59" s="76"/>
@@ -4224,8 +5698,8 @@
       <c r="BO59" s="76"/>
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A60" s="151"/>
-      <c r="B60" s="106">
+      <c r="A60" s="142"/>
+      <c r="B60" s="99">
         <v>57</v>
       </c>
       <c r="C60" s="76"/>
@@ -4239,8 +5713,8 @@
       <c r="BO60" s="76"/>
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A61" s="151"/>
-      <c r="B61" s="106">
+      <c r="A61" s="142"/>
+      <c r="B61" s="99">
         <v>58</v>
       </c>
       <c r="C61" s="76"/>
@@ -4254,8 +5728,8 @@
       <c r="BO61" s="76"/>
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A62" s="151"/>
-      <c r="B62" s="106">
+      <c r="A62" s="142"/>
+      <c r="B62" s="99">
         <v>59</v>
       </c>
       <c r="C62" s="76"/>
@@ -4269,8 +5743,8 @@
       <c r="BO62" s="76"/>
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A63" s="151"/>
-      <c r="B63" s="106">
+      <c r="A63" s="142"/>
+      <c r="B63" s="99">
         <v>60</v>
       </c>
       <c r="C63" s="76"/>
@@ -4284,8 +5758,8 @@
       <c r="BO63" s="76"/>
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A64" s="151"/>
-      <c r="B64" s="106">
+      <c r="A64" s="142"/>
+      <c r="B64" s="99">
         <v>61</v>
       </c>
       <c r="C64" s="76"/>
@@ -4299,8 +5773,8 @@
       <c r="BO64" s="76"/>
     </row>
     <row r="65" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A65" s="151"/>
-      <c r="B65" s="106">
+      <c r="A65" s="142"/>
+      <c r="B65" s="99">
         <v>62</v>
       </c>
       <c r="C65" s="76"/>
@@ -4314,11 +5788,11 @@
       <c r="BO65" s="76"/>
     </row>
     <row r="66" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="152"/>
-      <c r="B66" s="107">
+      <c r="A66" s="143"/>
+      <c r="B66" s="100">
         <v>63</v>
       </c>
-      <c r="C66" s="136"/>
+      <c r="C66" s="127"/>
       <c r="D66" s="84"/>
       <c r="E66" s="84"/>
       <c r="F66" s="84"/>
@@ -4467,12 +5941,1522 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3945AECD-F014-4B69-95C2-45CB0C1AC0EC}">
+  <dimension ref="A1:BP67"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="66" width="3.6328125" style="75" customWidth="1"/>
+    <col min="67" max="67" width="8.7265625" style="75"/>
+    <col min="68" max="68" width="25.7265625" style="75" customWidth="1"/>
+    <col min="69" max="16384" width="8.7265625" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="77"/>
+      <c r="BN1" s="77"/>
+    </row>
+    <row r="2" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="101">
+        <v>0</v>
+      </c>
+      <c r="D2" s="102">
+        <v>1</v>
+      </c>
+      <c r="E2" s="102">
+        <v>2</v>
+      </c>
+      <c r="F2" s="102">
+        <v>3</v>
+      </c>
+      <c r="G2" s="102">
+        <v>4</v>
+      </c>
+      <c r="H2" s="102">
+        <v>5</v>
+      </c>
+      <c r="I2" s="102">
+        <v>6</v>
+      </c>
+      <c r="J2" s="102">
+        <v>7</v>
+      </c>
+      <c r="K2" s="102">
+        <v>8</v>
+      </c>
+      <c r="L2" s="102">
+        <v>9</v>
+      </c>
+      <c r="M2" s="102">
+        <v>10</v>
+      </c>
+      <c r="N2" s="102">
+        <v>11</v>
+      </c>
+      <c r="O2" s="102">
+        <v>12</v>
+      </c>
+      <c r="P2" s="102">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="102">
+        <v>14</v>
+      </c>
+      <c r="R2" s="102">
+        <v>15</v>
+      </c>
+      <c r="S2" s="102">
+        <v>16</v>
+      </c>
+      <c r="T2" s="102">
+        <v>17</v>
+      </c>
+      <c r="U2" s="102">
+        <v>18</v>
+      </c>
+      <c r="V2" s="102">
+        <v>19</v>
+      </c>
+      <c r="W2" s="102">
+        <v>20</v>
+      </c>
+      <c r="X2" s="102">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="102">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="102">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="102">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="102">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="102">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="102">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="102">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="102">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="102">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="102">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="102">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="102">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="102">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="102">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="102">
+        <v>36</v>
+      </c>
+      <c r="AN2" s="102">
+        <v>37</v>
+      </c>
+      <c r="AO2" s="102">
+        <v>38</v>
+      </c>
+      <c r="AP2" s="102">
+        <v>39</v>
+      </c>
+      <c r="AQ2" s="102">
+        <v>40</v>
+      </c>
+      <c r="AR2" s="102">
+        <v>41</v>
+      </c>
+      <c r="AS2" s="102">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="102">
+        <v>43</v>
+      </c>
+      <c r="AU2" s="102">
+        <v>44</v>
+      </c>
+      <c r="AV2" s="102">
+        <v>45</v>
+      </c>
+      <c r="AW2" s="102">
+        <v>46</v>
+      </c>
+      <c r="AX2" s="102">
+        <v>47</v>
+      </c>
+      <c r="AY2" s="102">
+        <v>48</v>
+      </c>
+      <c r="AZ2" s="102">
+        <v>49</v>
+      </c>
+      <c r="BA2" s="102">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="102">
+        <v>51</v>
+      </c>
+      <c r="BC2" s="102">
+        <v>52</v>
+      </c>
+      <c r="BD2" s="102">
+        <v>53</v>
+      </c>
+      <c r="BE2" s="102">
+        <v>54</v>
+      </c>
+      <c r="BF2" s="102">
+        <v>55</v>
+      </c>
+      <c r="BG2" s="102">
+        <v>56</v>
+      </c>
+      <c r="BH2" s="102">
+        <v>57</v>
+      </c>
+      <c r="BI2" s="102">
+        <v>58</v>
+      </c>
+      <c r="BJ2" s="102">
+        <v>59</v>
+      </c>
+      <c r="BK2" s="102">
+        <v>60</v>
+      </c>
+      <c r="BL2" s="102">
+        <v>61</v>
+      </c>
+      <c r="BM2" s="102">
+        <v>62</v>
+      </c>
+      <c r="BN2" s="103">
+        <v>63</v>
+      </c>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A3" s="141"/>
+      <c r="B3" s="98">
+        <v>0</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="153" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="153"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="93"/>
+      <c r="BM3" s="93"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A4" s="142"/>
+      <c r="B4" s="99">
+        <v>1</v>
+      </c>
+      <c r="D4" s="124"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="86"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="87"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="156"/>
+      <c r="AZ4" s="88"/>
+      <c r="BN4" s="82"/>
+      <c r="BO4" s="76"/>
+      <c r="BP4" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="142"/>
+      <c r="B5" s="99">
+        <v>2</v>
+      </c>
+      <c r="C5" s="126"/>
+      <c r="E5" s="125"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="156"/>
+      <c r="U5" s="131"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="156"/>
+      <c r="AK5" s="144"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="156"/>
+      <c r="BA5" s="132"/>
+      <c r="BN5" s="82"/>
+      <c r="BO5" s="76"/>
+      <c r="BP5" s="75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A6" s="142"/>
+      <c r="B6" s="99">
+        <v>3</v>
+      </c>
+      <c r="C6" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="82"/>
+      <c r="S6" s="81"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="81"/>
+      <c r="AX6" s="82"/>
+      <c r="AY6" s="81"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="76"/>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A7" s="142"/>
+      <c r="B7" s="99">
+        <v>4</v>
+      </c>
+      <c r="C7" s="154"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="81"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="81"/>
+      <c r="AX7" s="82"/>
+      <c r="AY7" s="81"/>
+      <c r="BN7" s="82"/>
+      <c r="BO7" s="76"/>
+      <c r="BP7" s="75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A8" s="142"/>
+      <c r="B8" s="99">
+        <v>5</v>
+      </c>
+      <c r="C8" s="154"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="81"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="81"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="81"/>
+      <c r="BN8" s="82"/>
+      <c r="BO8" s="76"/>
+      <c r="BP8" s="75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A9" s="142"/>
+      <c r="B9" s="99">
+        <v>6</v>
+      </c>
+      <c r="C9" s="155" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="82"/>
+      <c r="S9" s="81"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="81"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="81"/>
+      <c r="BN9" s="82"/>
+      <c r="BO9" s="76"/>
+      <c r="BP9" s="75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A10" s="142"/>
+      <c r="B10" s="99">
+        <v>7</v>
+      </c>
+      <c r="C10" s="155"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="81"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="81"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="81"/>
+      <c r="BN10" s="82"/>
+      <c r="BO10" s="76"/>
+      <c r="BP10" s="75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A11" s="142"/>
+      <c r="B11" s="99">
+        <v>8</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="81"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="81"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="81"/>
+      <c r="BN11" s="82"/>
+      <c r="BO11" s="76"/>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A12" s="142"/>
+      <c r="B12" s="99">
+        <v>9</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="81"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="81"/>
+      <c r="AX12" s="82"/>
+      <c r="AY12" s="81"/>
+      <c r="BN12" s="82"/>
+      <c r="BO12" s="76"/>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A13" s="142"/>
+      <c r="B13" s="99">
+        <v>10</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="81"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="81"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="81"/>
+      <c r="BN13" s="82"/>
+      <c r="BO13" s="76"/>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A14" s="142"/>
+      <c r="B14" s="99">
+        <v>11</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="81"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="81"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="81"/>
+      <c r="BN14" s="82"/>
+      <c r="BO14" s="76"/>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A15" s="142"/>
+      <c r="B15" s="99">
+        <v>12</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="81"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="81"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="81"/>
+      <c r="BN15" s="82"/>
+      <c r="BO15" s="76"/>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A16" s="142"/>
+      <c r="B16" s="99">
+        <v>13</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="81"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="81"/>
+      <c r="AX16" s="82"/>
+      <c r="AY16" s="81"/>
+      <c r="BN16" s="82"/>
+      <c r="BO16" s="76"/>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A17" s="142"/>
+      <c r="B17" s="99">
+        <v>14</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="81"/>
+      <c r="AH17" s="82"/>
+      <c r="AI17" s="81"/>
+      <c r="AX17" s="82"/>
+      <c r="AY17" s="81"/>
+      <c r="BN17" s="82"/>
+      <c r="BO17" s="76"/>
+    </row>
+    <row r="18" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A18" s="142"/>
+      <c r="B18" s="99">
+        <v>15</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="81"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="81"/>
+      <c r="AX18" s="82"/>
+      <c r="AY18" s="81"/>
+      <c r="BN18" s="82"/>
+      <c r="BO18" s="76"/>
+    </row>
+    <row r="19" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A19" s="142"/>
+      <c r="B19" s="99">
+        <v>16</v>
+      </c>
+      <c r="C19" s="126"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="81"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="81"/>
+      <c r="AX19" s="82"/>
+      <c r="AY19" s="81"/>
+      <c r="BN19" s="82"/>
+      <c r="BO19" s="76"/>
+    </row>
+    <row r="20" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A20" s="142"/>
+      <c r="B20" s="99">
+        <v>17</v>
+      </c>
+      <c r="C20" s="126"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="81"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="81"/>
+      <c r="AX20" s="82"/>
+      <c r="AY20" s="81"/>
+      <c r="BN20" s="82"/>
+      <c r="BO20" s="76"/>
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A21" s="142"/>
+      <c r="B21" s="99">
+        <v>18</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="81"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="81"/>
+      <c r="AX21" s="82"/>
+      <c r="AY21" s="81"/>
+      <c r="BN21" s="82"/>
+      <c r="BO21" s="76"/>
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A22" s="142"/>
+      <c r="B22" s="99">
+        <v>19</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="81"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="81"/>
+      <c r="AX22" s="82"/>
+      <c r="AY22" s="81"/>
+      <c r="BN22" s="82"/>
+      <c r="BO22" s="76"/>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A23" s="142"/>
+      <c r="B23" s="99">
+        <v>20</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="81"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="81"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="81"/>
+      <c r="BN23" s="82"/>
+      <c r="BO23" s="76"/>
+    </row>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A24" s="142"/>
+      <c r="B24" s="99">
+        <v>21</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="81"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="81"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="81"/>
+      <c r="BN24" s="82"/>
+      <c r="BO24" s="76"/>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A25" s="142"/>
+      <c r="B25" s="99">
+        <v>22</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="81"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="81"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="81"/>
+      <c r="BN25" s="82"/>
+      <c r="BO25" s="76"/>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A26" s="142"/>
+      <c r="B26" s="99">
+        <v>23</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="81"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="81"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="81"/>
+      <c r="BN26" s="82"/>
+      <c r="BO26" s="76"/>
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A27" s="142"/>
+      <c r="B27" s="99">
+        <v>24</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="81"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="81"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="81"/>
+      <c r="BN27" s="82"/>
+      <c r="BO27" s="76"/>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A28" s="142"/>
+      <c r="B28" s="99">
+        <v>25</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="81"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="81"/>
+      <c r="AX28" s="82"/>
+      <c r="AY28" s="81"/>
+      <c r="BN28" s="82"/>
+      <c r="BO28" s="76"/>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A29" s="142"/>
+      <c r="B29" s="99">
+        <v>26</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="81"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="81"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="81"/>
+      <c r="BN29" s="82"/>
+      <c r="BO29" s="76"/>
+    </row>
+    <row r="30" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A30" s="142"/>
+      <c r="B30" s="99">
+        <v>27</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="81"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="81"/>
+      <c r="AX30" s="82"/>
+      <c r="AY30" s="81"/>
+      <c r="BN30" s="82"/>
+      <c r="BO30" s="76"/>
+    </row>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A31" s="142"/>
+      <c r="B31" s="99">
+        <v>28</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="81"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="81"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="81"/>
+      <c r="BN31" s="82"/>
+      <c r="BO31" s="76"/>
+    </row>
+    <row r="32" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A32" s="142"/>
+      <c r="B32" s="99">
+        <v>29</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="81"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="81"/>
+      <c r="AX32" s="82"/>
+      <c r="AY32" s="81"/>
+      <c r="BN32" s="82"/>
+      <c r="BO32" s="76"/>
+    </row>
+    <row r="33" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A33" s="142"/>
+      <c r="B33" s="99">
+        <v>30</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="81"/>
+      <c r="AH33" s="82"/>
+      <c r="AI33" s="81"/>
+      <c r="AX33" s="82"/>
+      <c r="AY33" s="81"/>
+      <c r="BN33" s="82"/>
+      <c r="BO33" s="76"/>
+    </row>
+    <row r="34" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A34" s="142"/>
+      <c r="B34" s="99">
+        <v>31</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="81"/>
+      <c r="AH34" s="82"/>
+      <c r="AI34" s="81"/>
+      <c r="AX34" s="82"/>
+      <c r="AY34" s="81"/>
+      <c r="BN34" s="82"/>
+      <c r="BO34" s="76"/>
+    </row>
+    <row r="35" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A35" s="142"/>
+      <c r="B35" s="99">
+        <v>32</v>
+      </c>
+      <c r="C35" s="126"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="81"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="81"/>
+      <c r="AX35" s="82"/>
+      <c r="AY35" s="81"/>
+      <c r="BN35" s="82"/>
+      <c r="BO35" s="76"/>
+    </row>
+    <row r="36" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A36" s="142"/>
+      <c r="B36" s="99">
+        <v>33</v>
+      </c>
+      <c r="C36" s="126"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="81"/>
+      <c r="AH36" s="82"/>
+      <c r="AI36" s="81"/>
+      <c r="AX36" s="82"/>
+      <c r="AY36" s="81"/>
+      <c r="BN36" s="82"/>
+      <c r="BO36" s="76"/>
+    </row>
+    <row r="37" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A37" s="142"/>
+      <c r="B37" s="99">
+        <v>34</v>
+      </c>
+      <c r="C37" s="126"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="81"/>
+      <c r="AH37" s="82"/>
+      <c r="AI37" s="81"/>
+      <c r="AX37" s="82"/>
+      <c r="AY37" s="81"/>
+      <c r="BN37" s="82"/>
+      <c r="BO37" s="76"/>
+    </row>
+    <row r="38" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A38" s="142"/>
+      <c r="B38" s="99">
+        <v>35</v>
+      </c>
+      <c r="C38" s="126"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="81"/>
+      <c r="AH38" s="82"/>
+      <c r="AI38" s="81"/>
+      <c r="AX38" s="82"/>
+      <c r="AY38" s="81"/>
+      <c r="BN38" s="82"/>
+      <c r="BO38" s="76"/>
+    </row>
+    <row r="39" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A39" s="142"/>
+      <c r="B39" s="99">
+        <v>36</v>
+      </c>
+      <c r="C39" s="126"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="81"/>
+      <c r="AH39" s="82"/>
+      <c r="AI39" s="81"/>
+      <c r="AX39" s="82"/>
+      <c r="AY39" s="81"/>
+      <c r="BN39" s="82"/>
+      <c r="BO39" s="76"/>
+    </row>
+    <row r="40" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A40" s="142"/>
+      <c r="B40" s="99">
+        <v>37</v>
+      </c>
+      <c r="C40" s="126"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="81"/>
+      <c r="AH40" s="82"/>
+      <c r="AI40" s="81"/>
+      <c r="AX40" s="82"/>
+      <c r="AY40" s="81"/>
+      <c r="BN40" s="82"/>
+      <c r="BO40" s="76"/>
+    </row>
+    <row r="41" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A41" s="142"/>
+      <c r="B41" s="99">
+        <v>38</v>
+      </c>
+      <c r="C41" s="126"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="81"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="81"/>
+      <c r="AX41" s="82"/>
+      <c r="AY41" s="81"/>
+      <c r="BN41" s="82"/>
+      <c r="BO41" s="76"/>
+    </row>
+    <row r="42" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A42" s="142"/>
+      <c r="B42" s="99">
+        <v>39</v>
+      </c>
+      <c r="C42" s="126"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="81"/>
+      <c r="AH42" s="82"/>
+      <c r="AI42" s="81"/>
+      <c r="AX42" s="82"/>
+      <c r="AY42" s="81"/>
+      <c r="BN42" s="82"/>
+      <c r="BO42" s="76"/>
+    </row>
+    <row r="43" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A43" s="142"/>
+      <c r="B43" s="99">
+        <v>40</v>
+      </c>
+      <c r="C43" s="126"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="81"/>
+      <c r="AH43" s="82"/>
+      <c r="AI43" s="81"/>
+      <c r="AX43" s="82"/>
+      <c r="AY43" s="81"/>
+      <c r="BN43" s="82"/>
+      <c r="BO43" s="76"/>
+    </row>
+    <row r="44" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A44" s="142"/>
+      <c r="B44" s="99">
+        <v>41</v>
+      </c>
+      <c r="C44" s="126"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="81"/>
+      <c r="AH44" s="82"/>
+      <c r="AI44" s="81"/>
+      <c r="AX44" s="82"/>
+      <c r="AY44" s="81"/>
+      <c r="BN44" s="82"/>
+      <c r="BO44" s="76"/>
+    </row>
+    <row r="45" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A45" s="142"/>
+      <c r="B45" s="99">
+        <v>42</v>
+      </c>
+      <c r="C45" s="126"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="81"/>
+      <c r="AH45" s="82"/>
+      <c r="AI45" s="81"/>
+      <c r="AX45" s="82"/>
+      <c r="AY45" s="81"/>
+      <c r="BN45" s="82"/>
+      <c r="BO45" s="76"/>
+    </row>
+    <row r="46" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A46" s="142"/>
+      <c r="B46" s="99">
+        <v>43</v>
+      </c>
+      <c r="C46" s="126"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="81"/>
+      <c r="AH46" s="82"/>
+      <c r="AI46" s="81"/>
+      <c r="AX46" s="82"/>
+      <c r="AY46" s="81"/>
+      <c r="BN46" s="82"/>
+      <c r="BO46" s="76"/>
+    </row>
+    <row r="47" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A47" s="142"/>
+      <c r="B47" s="99">
+        <v>44</v>
+      </c>
+      <c r="C47" s="126"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="81"/>
+      <c r="AH47" s="82"/>
+      <c r="AI47" s="81"/>
+      <c r="AX47" s="82"/>
+      <c r="AY47" s="81"/>
+      <c r="BN47" s="82"/>
+      <c r="BO47" s="76"/>
+    </row>
+    <row r="48" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A48" s="142"/>
+      <c r="B48" s="99">
+        <v>45</v>
+      </c>
+      <c r="C48" s="126"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="81"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="81"/>
+      <c r="AX48" s="82"/>
+      <c r="AY48" s="81"/>
+      <c r="BN48" s="82"/>
+      <c r="BO48" s="76"/>
+    </row>
+    <row r="49" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A49" s="142"/>
+      <c r="B49" s="99">
+        <v>46</v>
+      </c>
+      <c r="C49" s="126"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="81"/>
+      <c r="AH49" s="82"/>
+      <c r="AI49" s="81"/>
+      <c r="AX49" s="82"/>
+      <c r="AY49" s="81"/>
+      <c r="BN49" s="82"/>
+      <c r="BO49" s="76"/>
+    </row>
+    <row r="50" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A50" s="142"/>
+      <c r="B50" s="99">
+        <v>47</v>
+      </c>
+      <c r="C50" s="126"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="81"/>
+      <c r="AH50" s="82"/>
+      <c r="AI50" s="81"/>
+      <c r="AX50" s="82"/>
+      <c r="AY50" s="81"/>
+      <c r="BN50" s="82"/>
+      <c r="BO50" s="76"/>
+    </row>
+    <row r="51" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A51" s="142"/>
+      <c r="B51" s="99">
+        <v>48</v>
+      </c>
+      <c r="C51" s="126"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="81"/>
+      <c r="AH51" s="82"/>
+      <c r="AI51" s="81"/>
+      <c r="AX51" s="82"/>
+      <c r="AY51" s="81"/>
+      <c r="BN51" s="82"/>
+      <c r="BO51" s="76"/>
+    </row>
+    <row r="52" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A52" s="142"/>
+      <c r="B52" s="99">
+        <v>49</v>
+      </c>
+      <c r="C52" s="126"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="81"/>
+      <c r="AH52" s="82"/>
+      <c r="AI52" s="81"/>
+      <c r="AX52" s="82"/>
+      <c r="AY52" s="81"/>
+      <c r="BN52" s="82"/>
+      <c r="BO52" s="76"/>
+    </row>
+    <row r="53" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A53" s="142"/>
+      <c r="B53" s="99">
+        <v>50</v>
+      </c>
+      <c r="C53" s="76"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="81"/>
+      <c r="AH53" s="82"/>
+      <c r="AI53" s="81"/>
+      <c r="AX53" s="82"/>
+      <c r="AY53" s="81"/>
+      <c r="BN53" s="82"/>
+      <c r="BO53" s="76"/>
+    </row>
+    <row r="54" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A54" s="142"/>
+      <c r="B54" s="99">
+        <v>51</v>
+      </c>
+      <c r="C54" s="76"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="81"/>
+      <c r="AH54" s="82"/>
+      <c r="AI54" s="81"/>
+      <c r="AX54" s="82"/>
+      <c r="AY54" s="81"/>
+      <c r="BN54" s="82"/>
+      <c r="BO54" s="76"/>
+    </row>
+    <row r="55" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A55" s="142"/>
+      <c r="B55" s="99">
+        <v>52</v>
+      </c>
+      <c r="C55" s="76"/>
+      <c r="R55" s="82"/>
+      <c r="S55" s="81"/>
+      <c r="AH55" s="82"/>
+      <c r="AI55" s="81"/>
+      <c r="AX55" s="82"/>
+      <c r="AY55" s="81"/>
+      <c r="BN55" s="82"/>
+      <c r="BO55" s="76"/>
+    </row>
+    <row r="56" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A56" s="142"/>
+      <c r="B56" s="99">
+        <v>53</v>
+      </c>
+      <c r="C56" s="76"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="81"/>
+      <c r="AH56" s="82"/>
+      <c r="AI56" s="81"/>
+      <c r="AX56" s="82"/>
+      <c r="AY56" s="81"/>
+      <c r="BN56" s="82"/>
+      <c r="BO56" s="76"/>
+    </row>
+    <row r="57" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A57" s="142"/>
+      <c r="B57" s="99">
+        <v>54</v>
+      </c>
+      <c r="C57" s="76"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="81"/>
+      <c r="AH57" s="82"/>
+      <c r="AI57" s="81"/>
+      <c r="AX57" s="82"/>
+      <c r="AY57" s="81"/>
+      <c r="BN57" s="82"/>
+      <c r="BO57" s="76"/>
+    </row>
+    <row r="58" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A58" s="142"/>
+      <c r="B58" s="99">
+        <v>55</v>
+      </c>
+      <c r="C58" s="76"/>
+      <c r="R58" s="82"/>
+      <c r="S58" s="81"/>
+      <c r="AH58" s="82"/>
+      <c r="AI58" s="81"/>
+      <c r="AX58" s="82"/>
+      <c r="AY58" s="81"/>
+      <c r="BN58" s="82"/>
+      <c r="BO58" s="76"/>
+    </row>
+    <row r="59" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A59" s="142"/>
+      <c r="B59" s="99">
+        <v>56</v>
+      </c>
+      <c r="C59" s="76"/>
+      <c r="R59" s="82"/>
+      <c r="S59" s="81"/>
+      <c r="AH59" s="82"/>
+      <c r="AI59" s="81"/>
+      <c r="AX59" s="82"/>
+      <c r="AY59" s="81"/>
+      <c r="BN59" s="82"/>
+      <c r="BO59" s="76"/>
+    </row>
+    <row r="60" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A60" s="142"/>
+      <c r="B60" s="99">
+        <v>57</v>
+      </c>
+      <c r="C60" s="76"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="81"/>
+      <c r="AH60" s="82"/>
+      <c r="AI60" s="81"/>
+      <c r="AX60" s="82"/>
+      <c r="AY60" s="81"/>
+      <c r="BN60" s="82"/>
+      <c r="BO60" s="76"/>
+    </row>
+    <row r="61" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A61" s="142"/>
+      <c r="B61" s="99">
+        <v>58</v>
+      </c>
+      <c r="C61" s="76"/>
+      <c r="R61" s="82"/>
+      <c r="S61" s="81"/>
+      <c r="AH61" s="82"/>
+      <c r="AI61" s="81"/>
+      <c r="AX61" s="82"/>
+      <c r="AY61" s="81"/>
+      <c r="BN61" s="82"/>
+      <c r="BO61" s="76"/>
+    </row>
+    <row r="62" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A62" s="142"/>
+      <c r="B62" s="99">
+        <v>59</v>
+      </c>
+      <c r="C62" s="76"/>
+      <c r="R62" s="82"/>
+      <c r="S62" s="81"/>
+      <c r="AH62" s="82"/>
+      <c r="AI62" s="81"/>
+      <c r="AX62" s="82"/>
+      <c r="AY62" s="81"/>
+      <c r="BN62" s="82"/>
+      <c r="BO62" s="76"/>
+    </row>
+    <row r="63" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A63" s="142"/>
+      <c r="B63" s="99">
+        <v>60</v>
+      </c>
+      <c r="C63" s="76"/>
+      <c r="R63" s="82"/>
+      <c r="S63" s="81"/>
+      <c r="AH63" s="82"/>
+      <c r="AI63" s="81"/>
+      <c r="AX63" s="82"/>
+      <c r="AY63" s="81"/>
+      <c r="BN63" s="82"/>
+      <c r="BO63" s="76"/>
+    </row>
+    <row r="64" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A64" s="142"/>
+      <c r="B64" s="99">
+        <v>61</v>
+      </c>
+      <c r="C64" s="76"/>
+      <c r="R64" s="82"/>
+      <c r="S64" s="81"/>
+      <c r="AH64" s="82"/>
+      <c r="AI64" s="81"/>
+      <c r="AX64" s="82"/>
+      <c r="AY64" s="81"/>
+      <c r="BN64" s="82"/>
+      <c r="BO64" s="76"/>
+    </row>
+    <row r="65" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A65" s="142"/>
+      <c r="B65" s="99">
+        <v>62</v>
+      </c>
+      <c r="C65" s="76"/>
+      <c r="R65" s="82"/>
+      <c r="S65" s="81"/>
+      <c r="AH65" s="82"/>
+      <c r="AI65" s="81"/>
+      <c r="AX65" s="82"/>
+      <c r="AY65" s="81"/>
+      <c r="BN65" s="82"/>
+      <c r="BO65" s="76"/>
+    </row>
+    <row r="66" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="143"/>
+      <c r="B66" s="100">
+        <v>63</v>
+      </c>
+      <c r="C66" s="127"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="85"/>
+      <c r="S66" s="83"/>
+      <c r="T66" s="84"/>
+      <c r="U66" s="84"/>
+      <c r="V66" s="84"/>
+      <c r="W66" s="84"/>
+      <c r="X66" s="84"/>
+      <c r="Y66" s="84"/>
+      <c r="Z66" s="84"/>
+      <c r="AA66" s="84"/>
+      <c r="AB66" s="84"/>
+      <c r="AC66" s="84"/>
+      <c r="AD66" s="84"/>
+      <c r="AE66" s="84"/>
+      <c r="AF66" s="84"/>
+      <c r="AG66" s="84"/>
+      <c r="AH66" s="85"/>
+      <c r="AI66" s="83"/>
+      <c r="AJ66" s="84"/>
+      <c r="AK66" s="84"/>
+      <c r="AL66" s="84"/>
+      <c r="AM66" s="84"/>
+      <c r="AN66" s="84"/>
+      <c r="AO66" s="84"/>
+      <c r="AP66" s="84"/>
+      <c r="AQ66" s="84"/>
+      <c r="AR66" s="84"/>
+      <c r="AS66" s="84"/>
+      <c r="AT66" s="84"/>
+      <c r="AU66" s="84"/>
+      <c r="AV66" s="84"/>
+      <c r="AW66" s="84"/>
+      <c r="AX66" s="85"/>
+      <c r="AY66" s="83"/>
+      <c r="AZ66" s="84"/>
+      <c r="BA66" s="84"/>
+      <c r="BB66" s="84"/>
+      <c r="BC66" s="84"/>
+      <c r="BD66" s="84"/>
+      <c r="BE66" s="84"/>
+      <c r="BF66" s="84"/>
+      <c r="BG66" s="84"/>
+      <c r="BH66" s="84"/>
+      <c r="BI66" s="84"/>
+      <c r="BJ66" s="84"/>
+      <c r="BK66" s="84"/>
+      <c r="BL66" s="84"/>
+      <c r="BM66" s="84"/>
+      <c r="BN66" s="85"/>
+      <c r="BO66" s="76"/>
+    </row>
+    <row r="67" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A67" s="78"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="78"/>
+      <c r="R67" s="78"/>
+      <c r="S67" s="78"/>
+      <c r="T67" s="78"/>
+      <c r="U67" s="78"/>
+      <c r="V67" s="78"/>
+      <c r="W67" s="78"/>
+      <c r="X67" s="78"/>
+      <c r="Y67" s="78"/>
+      <c r="Z67" s="78"/>
+      <c r="AA67" s="78"/>
+      <c r="AB67" s="78"/>
+      <c r="AC67" s="78"/>
+      <c r="AD67" s="78"/>
+      <c r="AE67" s="78"/>
+      <c r="AF67" s="78"/>
+      <c r="AG67" s="78"/>
+      <c r="AH67" s="78"/>
+      <c r="AI67" s="78"/>
+      <c r="AJ67" s="78"/>
+      <c r="AK67" s="78"/>
+      <c r="AL67" s="78"/>
+      <c r="AM67" s="78"/>
+      <c r="AN67" s="78"/>
+      <c r="AO67" s="78"/>
+      <c r="AP67" s="78"/>
+      <c r="AQ67" s="78"/>
+      <c r="AR67" s="78"/>
+      <c r="AS67" s="78"/>
+      <c r="AT67" s="78"/>
+      <c r="AU67" s="78"/>
+      <c r="AV67" s="78"/>
+      <c r="AW67" s="78"/>
+      <c r="AX67" s="78"/>
+      <c r="AY67" s="78"/>
+      <c r="AZ67" s="78"/>
+      <c r="BA67" s="78"/>
+      <c r="BB67" s="78"/>
+      <c r="BC67" s="78"/>
+      <c r="BD67" s="78"/>
+      <c r="BE67" s="78"/>
+      <c r="BF67" s="78"/>
+      <c r="BG67" s="78"/>
+      <c r="BH67" s="78"/>
+      <c r="BI67" s="78"/>
+      <c r="BJ67" s="78"/>
+      <c r="BK67" s="78"/>
+      <c r="BL67" s="78"/>
+      <c r="BM67" s="78"/>
+      <c r="BN67" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA1189A-8C98-44E6-B4AB-87173F4C6604}">
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4484,7 +7468,7 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="154">
+      <c r="D3" s="145">
         <v>27200</v>
       </c>
     </row>
@@ -4495,7 +7479,7 @@
       <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="154">
+      <c r="D4" s="145">
         <v>31840</v>
       </c>
     </row>
@@ -4506,7 +7490,7 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="154">
+      <c r="D5" s="145">
         <v>34240</v>
       </c>
     </row>
@@ -4517,7 +7501,7 @@
       <c r="C6" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="154">
+      <c r="D6" s="145">
         <v>23360</v>
       </c>
     </row>
@@ -4528,7 +7512,7 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="154">
+      <c r="D7" s="145">
         <v>33920</v>
       </c>
     </row>
@@ -4539,12 +7523,12 @@
       <c r="C8" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="154">
+      <c r="D8" s="145">
         <v>24000</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="154">
+      <c r="D9" s="145">
         <f>SUM(D3:D8)</f>
         <v>174560</v>
       </c>
@@ -6262,10 +9246,10 @@
       <c r="L16" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="120" t="s">
+      <c r="M16" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="120" t="s">
+      <c r="N16" s="113" t="s">
         <v>76</v>
       </c>
       <c r="O16" s="65" t="s">
@@ -6275,48 +9259,48 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="44"/>
-      <c r="C17" s="122">
+      <c r="C17" s="115">
         <v>0</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="116">
         <v>0</v>
       </c>
-      <c r="E17" s="123">
+      <c r="E17" s="116">
         <v>0</v>
       </c>
-      <c r="F17" s="123">
+      <c r="F17" s="116">
         <v>100</v>
       </c>
-      <c r="G17" s="123">
+      <c r="G17" s="116">
         <v>5100</v>
       </c>
-      <c r="H17" s="123">
+      <c r="H17" s="116">
         <v>64</v>
       </c>
-      <c r="I17" s="124">
+      <c r="I17" s="117">
         <v>16</v>
       </c>
-      <c r="J17" s="125">
+      <c r="J17" s="118">
         <f>C17+(D17+E17)*F17</f>
         <v>0</v>
       </c>
-      <c r="K17" s="126">
+      <c r="K17" s="119">
         <f>C17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="126">
+      <c r="L17" s="119">
         <f>D17+E17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="127">
+      <c r="M17" s="120">
         <f>D17+E17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="127">
+      <c r="N17" s="120">
         <f>C17</f>
         <v>0</v>
       </c>
-      <c r="O17" s="128">
+      <c r="O17" s="121">
         <f>C17+(D17+E17)*G17</f>
         <v>0</v>
       </c>
@@ -6357,11 +9341,11 @@
         <f t="shared" ref="L18:L32" si="4">D18+E18</f>
         <v>16</v>
       </c>
-      <c r="M18" s="121">
+      <c r="M18" s="114">
         <f t="shared" ref="M18:M32" si="5">D18+E18</f>
         <v>16</v>
       </c>
-      <c r="N18" s="121">
+      <c r="N18" s="114">
         <f t="shared" ref="N18:N32" si="6">C18</f>
         <v>0</v>
       </c>
@@ -6406,11 +9390,11 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="M19" s="121">
+      <c r="M19" s="114">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="N19" s="121">
+      <c r="N19" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6455,11 +9439,11 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="M20" s="121">
+      <c r="M20" s="114">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="N20" s="121">
+      <c r="N20" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6504,11 +9488,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M21" s="121">
+      <c r="M21" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N21" s="121">
+      <c r="N21" s="114">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -6553,11 +9537,11 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="M22" s="121">
+      <c r="M22" s="114">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="N22" s="121">
+      <c r="N22" s="114">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -6602,11 +9586,11 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="M23" s="121">
+      <c r="M23" s="114">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="N23" s="121">
+      <c r="N23" s="114">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -6651,11 +9635,11 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="M24" s="121">
+      <c r="M24" s="114">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="N24" s="121">
+      <c r="N24" s="114">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -6700,11 +9684,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M25" s="121">
+      <c r="M25" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N25" s="121">
+      <c r="N25" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6749,11 +9733,11 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="M26" s="121">
+      <c r="M26" s="114">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="N26" s="121">
+      <c r="N26" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6798,11 +9782,11 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="M27" s="121">
+      <c r="M27" s="114">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="N27" s="121">
+      <c r="N27" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6851,11 +9835,11 @@
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="M28" s="121">
+      <c r="M28" s="114">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="N28" s="121">
+      <c r="N28" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6904,11 +9888,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M29" s="121">
+      <c r="M29" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N29" s="121">
+      <c r="N29" s="114">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -6957,11 +9941,11 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="M30" s="121">
+      <c r="M30" s="114">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="N30" s="121">
+      <c r="N30" s="114">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7010,11 +9994,11 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="M31" s="121">
+      <c r="M31" s="114">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="N31" s="121">
+      <c r="N31" s="114">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7063,11 +10047,11 @@
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="M32" s="129">
+      <c r="M32" s="122">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="N32" s="129">
+      <c r="N32" s="122">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7202,218 +10186,218 @@
       <c r="BN1" s="77"/>
     </row>
     <row r="2" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="101">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="94">
         <v>0</v>
       </c>
-      <c r="D2" s="102">
+      <c r="D2" s="95">
         <v>1</v>
       </c>
-      <c r="E2" s="102">
+      <c r="E2" s="95">
         <v>2</v>
       </c>
-      <c r="F2" s="102">
+      <c r="F2" s="95">
         <v>3</v>
       </c>
-      <c r="G2" s="102">
+      <c r="G2" s="95">
         <v>4</v>
       </c>
-      <c r="H2" s="102">
+      <c r="H2" s="95">
         <v>5</v>
       </c>
-      <c r="I2" s="102">
+      <c r="I2" s="95">
         <v>6</v>
       </c>
-      <c r="J2" s="102">
+      <c r="J2" s="95">
         <v>7</v>
       </c>
-      <c r="K2" s="102">
+      <c r="K2" s="95">
         <v>8</v>
       </c>
-      <c r="L2" s="102">
+      <c r="L2" s="95">
         <v>9</v>
       </c>
-      <c r="M2" s="102">
+      <c r="M2" s="95">
         <v>10</v>
       </c>
-      <c r="N2" s="102">
+      <c r="N2" s="95">
         <v>11</v>
       </c>
-      <c r="O2" s="102">
+      <c r="O2" s="95">
         <v>12</v>
       </c>
-      <c r="P2" s="102">
+      <c r="P2" s="95">
         <v>13</v>
       </c>
-      <c r="Q2" s="102">
+      <c r="Q2" s="95">
         <v>14</v>
       </c>
-      <c r="R2" s="102">
+      <c r="R2" s="95">
         <v>15</v>
       </c>
-      <c r="S2" s="102">
+      <c r="S2" s="95">
         <v>16</v>
       </c>
-      <c r="T2" s="102">
+      <c r="T2" s="95">
         <v>17</v>
       </c>
-      <c r="U2" s="102">
+      <c r="U2" s="95">
         <v>18</v>
       </c>
-      <c r="V2" s="102">
+      <c r="V2" s="95">
         <v>19</v>
       </c>
-      <c r="W2" s="102">
+      <c r="W2" s="95">
         <v>20</v>
       </c>
-      <c r="X2" s="102">
+      <c r="X2" s="95">
         <v>21</v>
       </c>
-      <c r="Y2" s="102">
+      <c r="Y2" s="95">
         <v>22</v>
       </c>
-      <c r="Z2" s="102">
+      <c r="Z2" s="95">
         <v>23</v>
       </c>
-      <c r="AA2" s="102">
+      <c r="AA2" s="95">
         <v>24</v>
       </c>
-      <c r="AB2" s="102">
+      <c r="AB2" s="95">
         <v>25</v>
       </c>
-      <c r="AC2" s="102">
+      <c r="AC2" s="95">
         <v>26</v>
       </c>
-      <c r="AD2" s="102">
+      <c r="AD2" s="95">
         <v>27</v>
       </c>
-      <c r="AE2" s="102">
+      <c r="AE2" s="95">
         <v>28</v>
       </c>
-      <c r="AF2" s="102">
+      <c r="AF2" s="95">
         <v>29</v>
       </c>
-      <c r="AG2" s="102">
+      <c r="AG2" s="95">
         <v>30</v>
       </c>
-      <c r="AH2" s="102">
+      <c r="AH2" s="95">
         <v>31</v>
       </c>
-      <c r="AI2" s="102">
+      <c r="AI2" s="95">
         <v>32</v>
       </c>
-      <c r="AJ2" s="102">
+      <c r="AJ2" s="95">
         <v>33</v>
       </c>
-      <c r="AK2" s="102">
+      <c r="AK2" s="95">
         <v>34</v>
       </c>
-      <c r="AL2" s="102">
+      <c r="AL2" s="95">
         <v>35</v>
       </c>
-      <c r="AM2" s="102">
+      <c r="AM2" s="95">
         <v>36</v>
       </c>
-      <c r="AN2" s="102">
+      <c r="AN2" s="95">
         <v>37</v>
       </c>
-      <c r="AO2" s="102">
+      <c r="AO2" s="95">
         <v>38</v>
       </c>
-      <c r="AP2" s="102">
+      <c r="AP2" s="95">
         <v>39</v>
       </c>
-      <c r="AQ2" s="102">
+      <c r="AQ2" s="95">
         <v>40</v>
       </c>
-      <c r="AR2" s="102">
+      <c r="AR2" s="95">
         <v>41</v>
       </c>
-      <c r="AS2" s="102">
+      <c r="AS2" s="95">
         <v>42</v>
       </c>
-      <c r="AT2" s="102">
+      <c r="AT2" s="95">
         <v>43</v>
       </c>
-      <c r="AU2" s="102">
+      <c r="AU2" s="95">
         <v>44</v>
       </c>
-      <c r="AV2" s="102">
+      <c r="AV2" s="95">
         <v>45</v>
       </c>
-      <c r="AW2" s="102">
+      <c r="AW2" s="95">
         <v>46</v>
       </c>
-      <c r="AX2" s="102">
+      <c r="AX2" s="95">
         <v>47</v>
       </c>
-      <c r="AY2" s="102">
+      <c r="AY2" s="95">
         <v>48</v>
       </c>
-      <c r="AZ2" s="102">
+      <c r="AZ2" s="95">
         <v>49</v>
       </c>
-      <c r="BA2" s="102">
+      <c r="BA2" s="95">
         <v>50</v>
       </c>
-      <c r="BB2" s="102">
+      <c r="BB2" s="95">
         <v>51</v>
       </c>
-      <c r="BC2" s="102">
+      <c r="BC2" s="95">
         <v>52</v>
       </c>
-      <c r="BD2" s="102">
+      <c r="BD2" s="95">
         <v>53</v>
       </c>
-      <c r="BE2" s="102">
+      <c r="BE2" s="95">
         <v>54</v>
       </c>
-      <c r="BF2" s="102">
+      <c r="BF2" s="95">
         <v>55</v>
       </c>
-      <c r="BG2" s="102">
+      <c r="BG2" s="95">
         <v>56</v>
       </c>
-      <c r="BH2" s="102">
+      <c r="BH2" s="95">
         <v>57</v>
       </c>
-      <c r="BI2" s="102">
+      <c r="BI2" s="95">
         <v>58</v>
       </c>
-      <c r="BJ2" s="102">
+      <c r="BJ2" s="95">
         <v>59</v>
       </c>
-      <c r="BK2" s="102">
+      <c r="BK2" s="95">
         <v>60</v>
       </c>
-      <c r="BL2" s="102">
+      <c r="BL2" s="95">
         <v>61</v>
       </c>
-      <c r="BM2" s="102">
+      <c r="BM2" s="95">
         <v>62</v>
       </c>
-      <c r="BN2" s="103">
+      <c r="BN2" s="96">
         <v>63</v>
       </c>
       <c r="BO2" s="76"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A3" s="150"/>
-      <c r="B3" s="105">
+      <c r="A3" s="141"/>
+      <c r="B3" s="98">
         <v>0</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="94" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="94" t="s">
+      <c r="G3" s="147"/>
+      <c r="H3" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="95"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="79"/>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
@@ -7474,66 +10458,66 @@
       <c r="BO3" s="76"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A4" s="151"/>
-      <c r="B4" s="106">
+      <c r="A4" s="142"/>
+      <c r="B4" s="99">
         <v>1</v>
       </c>
-      <c r="C4" s="113"/>
+      <c r="C4" s="106"/>
       <c r="BN4" s="82"/>
       <c r="BO4" s="76"/>
     </row>
     <row r="5" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="151"/>
-      <c r="B5" s="106">
+      <c r="A5" s="142"/>
+      <c r="B5" s="99">
         <v>2</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="148" t="s">
         <v>72</v>
       </c>
       <c r="BN5" s="82"/>
       <c r="BO5" s="76"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A6" s="151"/>
-      <c r="B6" s="106">
+      <c r="A6" s="142"/>
+      <c r="B6" s="99">
         <v>3</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="149"/>
       <c r="BN6" s="82"/>
       <c r="BO6" s="76"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A7" s="151"/>
-      <c r="B7" s="106">
+      <c r="A7" s="142"/>
+      <c r="B7" s="99">
         <v>4</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="150"/>
       <c r="BN7" s="82"/>
       <c r="BO7" s="76"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A8" s="151"/>
-      <c r="B8" s="106">
+      <c r="A8" s="142"/>
+      <c r="B8" s="99">
         <v>5</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="151" t="s">
         <v>67</v>
       </c>
       <c r="BN8" s="82"/>
       <c r="BO8" s="76"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A9" s="151"/>
-      <c r="B9" s="106">
+      <c r="A9" s="142"/>
+      <c r="B9" s="99">
         <v>6</v>
       </c>
-      <c r="C9" s="100"/>
+      <c r="C9" s="152"/>
       <c r="BN9" s="82"/>
       <c r="BO9" s="76"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A10" s="151"/>
-      <c r="B10" s="106">
+      <c r="A10" s="142"/>
+      <c r="B10" s="99">
         <v>7</v>
       </c>
       <c r="C10" s="81"/>
@@ -7541,8 +10525,8 @@
       <c r="BO10" s="76"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A11" s="151"/>
-      <c r="B11" s="106">
+      <c r="A11" s="142"/>
+      <c r="B11" s="99">
         <v>8</v>
       </c>
       <c r="C11" s="81"/>
@@ -7550,8 +10534,8 @@
       <c r="BO11" s="76"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A12" s="151"/>
-      <c r="B12" s="106">
+      <c r="A12" s="142"/>
+      <c r="B12" s="99">
         <v>9</v>
       </c>
       <c r="C12" s="81"/>
@@ -7559,8 +10543,8 @@
       <c r="BO12" s="76"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A13" s="151"/>
-      <c r="B13" s="106">
+      <c r="A13" s="142"/>
+      <c r="B13" s="99">
         <v>10</v>
       </c>
       <c r="C13" s="81"/>
@@ -7568,8 +10552,8 @@
       <c r="BO13" s="76"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A14" s="151"/>
-      <c r="B14" s="106">
+      <c r="A14" s="142"/>
+      <c r="B14" s="99">
         <v>11</v>
       </c>
       <c r="C14" s="81"/>
@@ -7577,8 +10561,8 @@
       <c r="BO14" s="76"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A15" s="151"/>
-      <c r="B15" s="106">
+      <c r="A15" s="142"/>
+      <c r="B15" s="99">
         <v>12</v>
       </c>
       <c r="C15" s="81"/>
@@ -7586,8 +10570,8 @@
       <c r="BO15" s="76"/>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A16" s="151"/>
-      <c r="B16" s="106">
+      <c r="A16" s="142"/>
+      <c r="B16" s="99">
         <v>13</v>
       </c>
       <c r="C16" s="81"/>
@@ -7595,8 +10579,8 @@
       <c r="BO16" s="76"/>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A17" s="151"/>
-      <c r="B17" s="106">
+      <c r="A17" s="142"/>
+      <c r="B17" s="99">
         <v>14</v>
       </c>
       <c r="C17" s="81"/>
@@ -7604,8 +10588,8 @@
       <c r="BO17" s="76"/>
     </row>
     <row r="18" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="151"/>
-      <c r="B18" s="106">
+      <c r="A18" s="142"/>
+      <c r="B18" s="99">
         <v>15</v>
       </c>
       <c r="C18" s="83"/>
@@ -7675,13 +10659,13 @@
       <c r="BO18" s="76"/>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A19" s="151"/>
-      <c r="B19" s="106">
+      <c r="A19" s="142"/>
+      <c r="B19" s="99">
         <v>16</v>
       </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="114"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="107"/>
       <c r="F19" s="79"/>
       <c r="G19" s="79"/>
       <c r="H19" s="79"/>
@@ -7746,17 +10730,17 @@
       <c r="BO19" s="76"/>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A20" s="151"/>
-      <c r="B20" s="106">
+      <c r="A20" s="142"/>
+      <c r="B20" s="99">
         <v>17</v>
       </c>
-      <c r="C20" s="117"/>
+      <c r="C20" s="110"/>
       <c r="BN20" s="82"/>
       <c r="BO20" s="76"/>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A21" s="151"/>
-      <c r="B21" s="106">
+      <c r="A21" s="142"/>
+      <c r="B21" s="99">
         <v>18</v>
       </c>
       <c r="C21" s="81"/>
@@ -7764,8 +10748,8 @@
       <c r="BO21" s="76"/>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A22" s="151"/>
-      <c r="B22" s="106">
+      <c r="A22" s="142"/>
+      <c r="B22" s="99">
         <v>19</v>
       </c>
       <c r="C22" s="81"/>
@@ -7773,8 +10757,8 @@
       <c r="BO22" s="76"/>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A23" s="151"/>
-      <c r="B23" s="106">
+      <c r="A23" s="142"/>
+      <c r="B23" s="99">
         <v>20</v>
       </c>
       <c r="C23" s="81"/>
@@ -7782,8 +10766,8 @@
       <c r="BO23" s="76"/>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A24" s="151"/>
-      <c r="B24" s="106">
+      <c r="A24" s="142"/>
+      <c r="B24" s="99">
         <v>21</v>
       </c>
       <c r="C24" s="81"/>
@@ -7791,8 +10775,8 @@
       <c r="BO24" s="76"/>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A25" s="151"/>
-      <c r="B25" s="106">
+      <c r="A25" s="142"/>
+      <c r="B25" s="99">
         <v>22</v>
       </c>
       <c r="C25" s="81"/>
@@ -7800,8 +10784,8 @@
       <c r="BO25" s="76"/>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A26" s="151"/>
-      <c r="B26" s="106">
+      <c r="A26" s="142"/>
+      <c r="B26" s="99">
         <v>23</v>
       </c>
       <c r="C26" s="81"/>
@@ -7809,8 +10793,8 @@
       <c r="BO26" s="76"/>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A27" s="151"/>
-      <c r="B27" s="106">
+      <c r="A27" s="142"/>
+      <c r="B27" s="99">
         <v>24</v>
       </c>
       <c r="C27" s="81"/>
@@ -7818,8 +10802,8 @@
       <c r="BO27" s="76"/>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A28" s="151"/>
-      <c r="B28" s="106">
+      <c r="A28" s="142"/>
+      <c r="B28" s="99">
         <v>25</v>
       </c>
       <c r="C28" s="81"/>
@@ -7827,8 +10811,8 @@
       <c r="BO28" s="76"/>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A29" s="151"/>
-      <c r="B29" s="106">
+      <c r="A29" s="142"/>
+      <c r="B29" s="99">
         <v>26</v>
       </c>
       <c r="C29" s="81"/>
@@ -7836,8 +10820,8 @@
       <c r="BO29" s="76"/>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A30" s="151"/>
-      <c r="B30" s="106">
+      <c r="A30" s="142"/>
+      <c r="B30" s="99">
         <v>27</v>
       </c>
       <c r="C30" s="81"/>
@@ -7845,8 +10829,8 @@
       <c r="BO30" s="76"/>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A31" s="151"/>
-      <c r="B31" s="106">
+      <c r="A31" s="142"/>
+      <c r="B31" s="99">
         <v>28</v>
       </c>
       <c r="C31" s="81"/>
@@ -7854,8 +10838,8 @@
       <c r="BO31" s="76"/>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A32" s="151"/>
-      <c r="B32" s="106">
+      <c r="A32" s="142"/>
+      <c r="B32" s="99">
         <v>29</v>
       </c>
       <c r="C32" s="81"/>
@@ -7863,8 +10847,8 @@
       <c r="BO32" s="76"/>
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A33" s="151"/>
-      <c r="B33" s="106">
+      <c r="A33" s="142"/>
+      <c r="B33" s="99">
         <v>30</v>
       </c>
       <c r="C33" s="81"/>
@@ -7872,8 +10856,8 @@
       <c r="BO33" s="76"/>
     </row>
     <row r="34" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="151"/>
-      <c r="B34" s="106">
+      <c r="A34" s="142"/>
+      <c r="B34" s="99">
         <v>31</v>
       </c>
       <c r="C34" s="83"/>
@@ -7943,13 +10927,13 @@
       <c r="BO34" s="76"/>
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A35" s="151"/>
-      <c r="B35" s="106">
+      <c r="A35" s="142"/>
+      <c r="B35" s="99">
         <v>32</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="115"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="108"/>
       <c r="F35" s="79"/>
       <c r="G35" s="79"/>
       <c r="H35" s="79"/>
@@ -8014,17 +10998,17 @@
       <c r="BO35" s="76"/>
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A36" s="151"/>
-      <c r="B36" s="106">
+      <c r="A36" s="142"/>
+      <c r="B36" s="99">
         <v>33</v>
       </c>
-      <c r="C36" s="118"/>
+      <c r="C36" s="111"/>
       <c r="BN36" s="82"/>
       <c r="BO36" s="76"/>
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A37" s="151"/>
-      <c r="B37" s="106">
+      <c r="A37" s="142"/>
+      <c r="B37" s="99">
         <v>34</v>
       </c>
       <c r="C37" s="81"/>
@@ -8032,8 +11016,8 @@
       <c r="BO37" s="76"/>
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A38" s="151"/>
-      <c r="B38" s="106">
+      <c r="A38" s="142"/>
+      <c r="B38" s="99">
         <v>35</v>
       </c>
       <c r="C38" s="81"/>
@@ -8041,8 +11025,8 @@
       <c r="BO38" s="76"/>
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A39" s="151"/>
-      <c r="B39" s="106">
+      <c r="A39" s="142"/>
+      <c r="B39" s="99">
         <v>36</v>
       </c>
       <c r="C39" s="81"/>
@@ -8050,8 +11034,8 @@
       <c r="BO39" s="76"/>
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A40" s="151"/>
-      <c r="B40" s="106">
+      <c r="A40" s="142"/>
+      <c r="B40" s="99">
         <v>37</v>
       </c>
       <c r="C40" s="81"/>
@@ -8059,8 +11043,8 @@
       <c r="BO40" s="76"/>
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A41" s="151"/>
-      <c r="B41" s="106">
+      <c r="A41" s="142"/>
+      <c r="B41" s="99">
         <v>38</v>
       </c>
       <c r="C41" s="81"/>
@@ -8068,8 +11052,8 @@
       <c r="BO41" s="76"/>
     </row>
     <row r="42" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A42" s="151"/>
-      <c r="B42" s="106">
+      <c r="A42" s="142"/>
+      <c r="B42" s="99">
         <v>39</v>
       </c>
       <c r="C42" s="81"/>
@@ -8077,8 +11061,8 @@
       <c r="BO42" s="76"/>
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A43" s="151"/>
-      <c r="B43" s="106">
+      <c r="A43" s="142"/>
+      <c r="B43" s="99">
         <v>40</v>
       </c>
       <c r="C43" s="81"/>
@@ -8086,8 +11070,8 @@
       <c r="BO43" s="76"/>
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A44" s="151"/>
-      <c r="B44" s="106">
+      <c r="A44" s="142"/>
+      <c r="B44" s="99">
         <v>41</v>
       </c>
       <c r="C44" s="81"/>
@@ -8095,8 +11079,8 @@
       <c r="BO44" s="76"/>
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A45" s="151"/>
-      <c r="B45" s="106">
+      <c r="A45" s="142"/>
+      <c r="B45" s="99">
         <v>42</v>
       </c>
       <c r="C45" s="81"/>
@@ -8104,8 +11088,8 @@
       <c r="BO45" s="76"/>
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A46" s="151"/>
-      <c r="B46" s="106">
+      <c r="A46" s="142"/>
+      <c r="B46" s="99">
         <v>43</v>
       </c>
       <c r="C46" s="81"/>
@@ -8113,8 +11097,8 @@
       <c r="BO46" s="76"/>
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A47" s="151"/>
-      <c r="B47" s="106">
+      <c r="A47" s="142"/>
+      <c r="B47" s="99">
         <v>44</v>
       </c>
       <c r="C47" s="81"/>
@@ -8122,8 +11106,8 @@
       <c r="BO47" s="76"/>
     </row>
     <row r="48" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A48" s="151"/>
-      <c r="B48" s="106">
+      <c r="A48" s="142"/>
+      <c r="B48" s="99">
         <v>45</v>
       </c>
       <c r="C48" s="81"/>
@@ -8131,8 +11115,8 @@
       <c r="BO48" s="76"/>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A49" s="151"/>
-      <c r="B49" s="106">
+      <c r="A49" s="142"/>
+      <c r="B49" s="99">
         <v>46</v>
       </c>
       <c r="C49" s="81"/>
@@ -8140,8 +11124,8 @@
       <c r="BO49" s="76"/>
     </row>
     <row r="50" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="151"/>
-      <c r="B50" s="106">
+      <c r="A50" s="142"/>
+      <c r="B50" s="99">
         <v>47</v>
       </c>
       <c r="C50" s="83"/>
@@ -8211,13 +11195,13 @@
       <c r="BO50" s="76"/>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A51" s="151"/>
-      <c r="B51" s="106">
+      <c r="A51" s="142"/>
+      <c r="B51" s="99">
         <v>48</v>
       </c>
-      <c r="C51" s="148"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="116"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="79"/>
       <c r="G51" s="79"/>
       <c r="H51" s="79"/>
@@ -8282,17 +11266,17 @@
       <c r="BO51" s="76"/>
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A52" s="151"/>
-      <c r="B52" s="106">
+      <c r="A52" s="142"/>
+      <c r="B52" s="99">
         <v>49</v>
       </c>
-      <c r="C52" s="119"/>
+      <c r="C52" s="112"/>
       <c r="BN52" s="82"/>
       <c r="BO52" s="76"/>
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A53" s="151"/>
-      <c r="B53" s="106">
+      <c r="A53" s="142"/>
+      <c r="B53" s="99">
         <v>50</v>
       </c>
       <c r="C53" s="81"/>
@@ -8300,8 +11284,8 @@
       <c r="BO53" s="76"/>
     </row>
     <row r="54" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A54" s="151"/>
-      <c r="B54" s="106">
+      <c r="A54" s="142"/>
+      <c r="B54" s="99">
         <v>51</v>
       </c>
       <c r="C54" s="81"/>
@@ -8309,8 +11293,8 @@
       <c r="BO54" s="76"/>
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A55" s="151"/>
-      <c r="B55" s="106">
+      <c r="A55" s="142"/>
+      <c r="B55" s="99">
         <v>52</v>
       </c>
       <c r="C55" s="81"/>
@@ -8318,8 +11302,8 @@
       <c r="BO55" s="76"/>
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A56" s="151"/>
-      <c r="B56" s="106">
+      <c r="A56" s="142"/>
+      <c r="B56" s="99">
         <v>53</v>
       </c>
       <c r="C56" s="81"/>
@@ -8327,8 +11311,8 @@
       <c r="BO56" s="76"/>
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A57" s="151"/>
-      <c r="B57" s="106">
+      <c r="A57" s="142"/>
+      <c r="B57" s="99">
         <v>54</v>
       </c>
       <c r="C57" s="81"/>
@@ -8336,8 +11320,8 @@
       <c r="BO57" s="76"/>
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A58" s="151"/>
-      <c r="B58" s="106">
+      <c r="A58" s="142"/>
+      <c r="B58" s="99">
         <v>55</v>
       </c>
       <c r="C58" s="81"/>
@@ -8345,8 +11329,8 @@
       <c r="BO58" s="76"/>
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A59" s="151"/>
-      <c r="B59" s="106">
+      <c r="A59" s="142"/>
+      <c r="B59" s="99">
         <v>56</v>
       </c>
       <c r="C59" s="81"/>
@@ -8354,8 +11338,8 @@
       <c r="BO59" s="76"/>
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A60" s="151"/>
-      <c r="B60" s="106">
+      <c r="A60" s="142"/>
+      <c r="B60" s="99">
         <v>57</v>
       </c>
       <c r="C60" s="81"/>
@@ -8363,8 +11347,8 @@
       <c r="BO60" s="76"/>
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A61" s="151"/>
-      <c r="B61" s="106">
+      <c r="A61" s="142"/>
+      <c r="B61" s="99">
         <v>58</v>
       </c>
       <c r="C61" s="81"/>
@@ -8372,8 +11356,8 @@
       <c r="BO61" s="76"/>
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A62" s="151"/>
-      <c r="B62" s="106">
+      <c r="A62" s="142"/>
+      <c r="B62" s="99">
         <v>59</v>
       </c>
       <c r="C62" s="81"/>
@@ -8381,8 +11365,8 @@
       <c r="BO62" s="76"/>
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A63" s="151"/>
-      <c r="B63" s="106">
+      <c r="A63" s="142"/>
+      <c r="B63" s="99">
         <v>60</v>
       </c>
       <c r="C63" s="81"/>
@@ -8390,8 +11374,8 @@
       <c r="BO63" s="76"/>
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A64" s="151"/>
-      <c r="B64" s="106">
+      <c r="A64" s="142"/>
+      <c r="B64" s="99">
         <v>61</v>
       </c>
       <c r="C64" s="81"/>
@@ -8399,8 +11383,8 @@
       <c r="BO64" s="76"/>
     </row>
     <row r="65" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A65" s="151"/>
-      <c r="B65" s="106">
+      <c r="A65" s="142"/>
+      <c r="B65" s="99">
         <v>62</v>
       </c>
       <c r="C65" s="81"/>
@@ -8408,8 +11392,8 @@
       <c r="BO65" s="76"/>
     </row>
     <row r="66" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="152"/>
-      <c r="B66" s="107">
+      <c r="A66" s="143"/>
+      <c r="B66" s="100">
         <v>63</v>
       </c>
       <c r="C66" s="83"/>
